--- a/voca.xlsx
+++ b/voca.xlsx
@@ -21771,9 +21771,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -21827,62 +21827,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -21897,43 +21856,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -21947,17 +21902,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -21965,6 +21934,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -22045,13 +22045,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22063,109 +22183,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22183,49 +22207,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22248,50 +22248,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -22311,6 +22272,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -22318,6 +22294,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -22344,10 +22344,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -22356,133 +22356,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -22920,9 +22920,9 @@
   <dimension ref="A1:I1994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A862" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
+      <selection pane="bottomLeft" activeCell="B948" sqref="B948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="20.25"/>
@@ -23058,7 +23058,7 @@
       </c>
     </row>
     <row r="11" hidden="1"/>
-    <row r="12" spans="1:8">
+    <row r="12" hidden="1" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -23134,12 +23134,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" hidden="1" spans="2:8">
       <c r="B20" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="5" t="s">
@@ -23318,7 +23318,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" hidden="1" spans="2:8">
       <c r="B41" s="6" t="s">
         <v>89</v>
       </c>
@@ -23332,7 +23332,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" hidden="1" spans="2:8">
       <c r="B42" s="6" t="s">
         <v>92</v>
       </c>
@@ -23384,12 +23384,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" hidden="1" spans="2:8">
       <c r="B48" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C48" s="5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>105</v>
@@ -23402,7 +23402,7 @@
       </c>
     </row>
     <row r="49" hidden="1"/>
-    <row r="50" spans="1:8">
+    <row r="50" hidden="1" spans="1:8">
       <c r="A50" s="4" t="s">
         <v>108</v>
       </c>
@@ -23410,7 +23410,7 @@
         <v>109</v>
       </c>
       <c r="C50" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="5" t="s">
@@ -23489,7 +23489,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" hidden="1" spans="2:8">
       <c r="B59" s="6" t="s">
         <v>129</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" hidden="1" spans="2:8">
       <c r="B60" s="10" t="s">
         <v>132</v>
       </c>
@@ -23600,7 +23600,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" hidden="1" spans="2:8">
       <c r="B71" s="6" t="s">
         <v>154</v>
       </c>
@@ -23636,7 +23636,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" hidden="1" spans="2:8">
       <c r="B74" s="6" t="s">
         <v>162</v>
       </c>
@@ -23686,12 +23686,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" hidden="1" spans="2:8">
       <c r="B79" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C79" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="5" t="s">
@@ -23704,12 +23704,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" hidden="1" spans="2:8">
       <c r="B80" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C80" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D80" s="7"/>
       <c r="F80" s="5" t="s">
@@ -23719,7 +23719,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" hidden="1" spans="2:8">
       <c r="B81" s="10" t="s">
         <v>180</v>
       </c>
@@ -23769,7 +23769,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" hidden="1" spans="1:8">
       <c r="A86" s="12"/>
       <c r="B86" s="13" t="s">
         <v>191</v>
@@ -23898,13 +23898,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" hidden="1" spans="1:8">
       <c r="A97" s="12"/>
       <c r="B97" s="13" t="s">
         <v>215</v>
       </c>
       <c r="C97" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D97" s="7"/>
       <c r="F97" s="5" t="s">
@@ -23914,7 +23914,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" hidden="1" spans="1:8">
       <c r="A98" s="12"/>
       <c r="B98" s="14" t="s">
         <v>218</v>
@@ -23985,13 +23985,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" hidden="1" spans="1:8">
       <c r="A104" s="12"/>
       <c r="B104" s="14" t="s">
         <v>231</v>
       </c>
       <c r="C104" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D104" s="7"/>
       <c r="F104" s="5" t="s">
@@ -24046,7 +24046,7 @@
       </c>
     </row>
     <row r="109" hidden="1"/>
-    <row r="110" spans="1:8">
+    <row r="110" hidden="1" spans="1:8">
       <c r="A110" s="12" t="s">
         <v>242</v>
       </c>
@@ -24064,13 +24064,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" hidden="1" spans="1:8">
       <c r="A111" s="12"/>
       <c r="B111" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C111" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="5" t="s">
@@ -24094,7 +24094,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" hidden="1" spans="1:8">
       <c r="A113" s="12"/>
       <c r="B113" s="14" t="s">
         <v>252</v>
@@ -24113,7 +24113,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" hidden="1" spans="1:8">
       <c r="A114" s="12"/>
       <c r="B114" s="14" t="s">
         <v>256</v>
@@ -24129,7 +24129,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" hidden="1" spans="1:8">
       <c r="A115" s="12"/>
       <c r="B115" s="14" t="s">
         <v>259</v>
@@ -24145,7 +24145,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" hidden="1" spans="1:8">
       <c r="A116" s="12"/>
       <c r="B116" s="14" t="s">
         <v>262</v>
@@ -24202,13 +24202,13 @@
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" hidden="1" spans="1:8">
       <c r="A121" s="12"/>
       <c r="B121" s="14" t="s">
         <v>272</v>
       </c>
       <c r="C121" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="5" t="s">
@@ -24276,7 +24276,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" hidden="1" spans="1:8">
       <c r="A127" s="12"/>
       <c r="B127" s="14" t="s">
         <v>286</v>
@@ -24306,7 +24306,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" hidden="1" spans="1:8">
       <c r="A129" s="12"/>
       <c r="B129" s="14" t="s">
         <v>292</v>
@@ -24325,7 +24325,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" hidden="1" spans="1:8">
       <c r="A130" s="12"/>
       <c r="B130" s="14" t="s">
         <v>296</v>
@@ -24367,7 +24367,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="134" spans="2:8">
+    <row r="134" hidden="1" spans="2:8">
       <c r="B134" s="6" t="s">
         <v>305</v>
       </c>
@@ -24384,7 +24384,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="135" spans="2:8">
+    <row r="135" hidden="1" spans="2:8">
       <c r="B135" s="6" t="s">
         <v>309</v>
       </c>
@@ -24430,12 +24430,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="140" spans="2:8">
+    <row r="140" hidden="1" spans="2:8">
       <c r="B140" s="6" t="s">
         <v>320</v>
       </c>
       <c r="C140" s="5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>321</v>
@@ -24444,7 +24444,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="141" spans="2:8">
+    <row r="141" hidden="1" spans="2:8">
       <c r="B141" s="6" t="s">
         <v>323</v>
       </c>
@@ -24458,7 +24458,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="142" spans="2:8">
+    <row r="142" hidden="1" spans="2:8">
       <c r="B142" s="6" t="s">
         <v>326</v>
       </c>
@@ -24520,7 +24520,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="149" spans="2:8">
+    <row r="149" hidden="1" spans="2:8">
       <c r="B149" s="6" t="s">
         <v>341</v>
       </c>
@@ -24550,7 +24550,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="152" spans="2:8">
+    <row r="152" hidden="1" spans="2:8">
       <c r="B152" s="6" t="s">
         <v>348</v>
       </c>
@@ -24572,7 +24572,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="154" spans="2:8">
+    <row r="154" hidden="1" spans="2:8">
       <c r="B154" s="6" t="s">
         <v>353</v>
       </c>
@@ -24587,7 +24587,7 @@
       </c>
     </row>
     <row r="155" hidden="1"/>
-    <row r="156" spans="1:8">
+    <row r="156" hidden="1" spans="1:8">
       <c r="A156" s="4" t="s">
         <v>356</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" hidden="1" spans="2:8">
       <c r="B157" s="6" t="s">
         <v>360</v>
       </c>
@@ -24642,7 +24642,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="161" spans="2:8">
+    <row r="161" hidden="1" spans="2:8">
       <c r="B161" s="6" t="s">
         <v>369</v>
       </c>
@@ -24664,12 +24664,12 @@
         <v>373</v>
       </c>
     </row>
-    <row r="163" spans="2:8">
+    <row r="163" hidden="1" spans="2:8">
       <c r="B163" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C163" s="5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>104</v>
@@ -24689,12 +24689,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="165" spans="2:8">
+    <row r="165" hidden="1" spans="2:8">
       <c r="B165" s="6" t="s">
         <v>378</v>
       </c>
       <c r="C165" s="5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>379</v>
@@ -24703,7 +24703,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="166" spans="2:8">
+    <row r="166" hidden="1" spans="2:8">
       <c r="B166" s="6" t="s">
         <v>381</v>
       </c>
@@ -24733,12 +24733,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="169" spans="2:8">
+    <row r="169" hidden="1" spans="2:8">
       <c r="B169" s="6" t="s">
         <v>388</v>
       </c>
       <c r="C169" s="5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>389</v>
@@ -24755,7 +24755,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="171" spans="2:8">
+    <row r="171" hidden="1" spans="2:8">
       <c r="B171" s="6" t="s">
         <v>393</v>
       </c>
@@ -24790,12 +24790,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="175" spans="2:8">
+    <row r="175" hidden="1" spans="2:8">
       <c r="B175" s="6" t="s">
         <v>401</v>
       </c>
       <c r="C175" s="5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H175" s="5" t="s">
         <v>402</v>
@@ -24809,7 +24809,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="177" spans="2:8">
+    <row r="177" hidden="1" spans="2:8">
       <c r="B177" s="6" t="s">
         <v>405</v>
       </c>
@@ -24904,7 +24904,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="189" spans="2:8">
+    <row r="189" hidden="1" spans="2:8">
       <c r="B189" s="6" t="s">
         <v>428</v>
       </c>
@@ -24915,12 +24915,12 @@
         <v>429</v>
       </c>
     </row>
-    <row r="190" spans="2:8">
+    <row r="190" hidden="1" spans="2:8">
       <c r="B190" s="6" t="s">
         <v>430</v>
       </c>
       <c r="C190" s="5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H190" s="5" t="s">
         <v>431</v>
@@ -24958,7 +24958,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="195" spans="2:8">
+    <row r="195" hidden="1" spans="2:8">
       <c r="B195" s="6" t="s">
         <v>440</v>
       </c>
@@ -25041,12 +25041,12 @@
         <v>459</v>
       </c>
     </row>
-    <row r="205" spans="2:8">
+    <row r="205" hidden="1" spans="2:8">
       <c r="B205" s="6" t="s">
         <v>460</v>
       </c>
       <c r="C205" s="5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H205" s="5" t="s">
         <v>461</v>
@@ -25090,23 +25090,23 @@
         <v>470</v>
       </c>
     </row>
-    <row r="211" spans="2:8">
+    <row r="211" hidden="1" spans="2:8">
       <c r="B211" s="6" t="s">
         <v>471</v>
       </c>
       <c r="C211" s="5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H211" s="5" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="212" spans="2:8">
+    <row r="212" hidden="1" spans="2:8">
       <c r="B212" s="6" t="s">
         <v>473</v>
       </c>
       <c r="C212" s="5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>474</v>
@@ -25136,12 +25136,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="216" spans="2:8">
+    <row r="216" hidden="1" spans="2:8">
       <c r="B216" s="6" t="s">
         <v>481</v>
       </c>
       <c r="C216" s="5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H216" s="5" t="s">
         <v>482</v>
@@ -25187,7 +25187,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="222" spans="2:8">
+    <row r="222" hidden="1" spans="2:8">
       <c r="B222" s="6" t="s">
         <v>493</v>
       </c>
@@ -25230,12 +25230,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="227" spans="2:8">
+    <row r="227" hidden="1" spans="2:8">
       <c r="B227" s="6" t="s">
         <v>502</v>
       </c>
       <c r="C227" s="5">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H227" s="5" t="s">
         <v>503</v>
@@ -25289,7 +25289,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="234" spans="2:8">
+    <row r="234" hidden="1" spans="2:8">
       <c r="B234" s="6" t="s">
         <v>516</v>
       </c>
@@ -25324,7 +25324,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="238" spans="2:8">
+    <row r="238" hidden="1" spans="2:8">
       <c r="B238" s="6" t="s">
         <v>524</v>
       </c>
@@ -25343,7 +25343,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="240" spans="2:8">
+    <row r="240" hidden="1" spans="2:8">
       <c r="B240" s="6" t="s">
         <v>528</v>
       </c>
@@ -25354,7 +25354,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="241" spans="2:8">
+    <row r="241" hidden="1" spans="2:8">
       <c r="B241" s="6" t="s">
         <v>530</v>
       </c>
@@ -25373,7 +25373,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="243" spans="2:8">
+    <row r="243" hidden="1" spans="2:8">
       <c r="B243" s="6" t="s">
         <v>534</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="244" spans="2:8">
+    <row r="244" hidden="1" spans="2:8">
       <c r="B244" s="6" t="s">
         <v>536</v>
       </c>
@@ -25411,7 +25411,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="247" spans="2:8">
+    <row r="247" hidden="1" spans="2:8">
       <c r="B247" s="6" t="s">
         <v>542</v>
       </c>
@@ -25422,7 +25422,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="248" spans="2:8">
+    <row r="248" hidden="1" spans="2:8">
       <c r="B248" s="6" t="s">
         <v>544</v>
       </c>
@@ -25433,7 +25433,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="249" spans="2:8">
+    <row r="249" hidden="1" spans="2:8">
       <c r="B249" s="6" t="s">
         <v>546</v>
       </c>
@@ -25452,7 +25452,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="251" spans="2:8">
+    <row r="251" hidden="1" spans="2:8">
       <c r="B251" s="6" t="s">
         <v>550</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="255" spans="2:8">
+    <row r="255" hidden="1" spans="2:8">
       <c r="B255" s="6" t="s">
         <v>557</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="256" spans="2:8">
+    <row r="256" hidden="1" spans="2:8">
       <c r="B256" s="6" t="s">
         <v>559</v>
       </c>
@@ -25521,7 +25521,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="259" spans="2:8">
+    <row r="259" hidden="1" spans="2:8">
       <c r="B259" s="6" t="s">
         <v>565</v>
       </c>
@@ -25532,7 +25532,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="260" spans="2:8">
+    <row r="260" hidden="1" spans="2:8">
       <c r="B260" s="6" t="s">
         <v>567</v>
       </c>
@@ -25567,7 +25567,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="264" spans="2:8">
+    <row r="264" hidden="1" spans="2:8">
       <c r="B264" s="6" t="s">
         <v>575</v>
       </c>
@@ -25578,7 +25578,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="265" spans="2:8">
+    <row r="265" hidden="1" spans="2:8">
       <c r="B265" s="6" t="s">
         <v>577</v>
       </c>
@@ -25589,7 +25589,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="266" spans="2:8">
+    <row r="266" hidden="1" spans="2:8">
       <c r="B266" s="6" t="s">
         <v>579</v>
       </c>
@@ -25616,7 +25616,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="269" spans="2:8">
+    <row r="269" hidden="1" spans="2:8">
       <c r="B269" s="6" t="s">
         <v>585</v>
       </c>
@@ -25627,7 +25627,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="270" spans="2:8">
+    <row r="270" hidden="1" spans="2:8">
       <c r="B270" s="6" t="s">
         <v>587</v>
       </c>
@@ -25638,7 +25638,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="271" spans="2:8">
+    <row r="271" hidden="1" spans="2:8">
       <c r="B271" s="6" t="s">
         <v>589</v>
       </c>
@@ -25649,7 +25649,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="272" spans="2:8">
+    <row r="272" hidden="1" spans="2:8">
       <c r="B272" s="6" t="s">
         <v>591</v>
       </c>
@@ -25660,7 +25660,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="273" spans="2:8">
+    <row r="273" hidden="1" spans="2:8">
       <c r="B273" s="6" t="s">
         <v>593</v>
       </c>
@@ -25671,7 +25671,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="274" spans="2:8">
+    <row r="274" hidden="1" spans="2:8">
       <c r="B274" s="6" t="s">
         <v>595</v>
       </c>
@@ -25683,7 +25683,7 @@
       </c>
     </row>
     <row r="275" hidden="1"/>
-    <row r="276" spans="1:8">
+    <row r="276" hidden="1" spans="1:8">
       <c r="A276" s="4" t="s">
         <v>597</v>
       </c>
@@ -25697,7 +25697,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="277" spans="2:8">
+    <row r="277" hidden="1" spans="2:8">
       <c r="B277" s="6" t="s">
         <v>600</v>
       </c>
@@ -25708,7 +25708,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="278" spans="2:8">
+    <row r="278" hidden="1" spans="2:8">
       <c r="B278" s="6" t="s">
         <v>602</v>
       </c>
@@ -25727,7 +25727,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="280" spans="2:8">
+    <row r="280" hidden="1" spans="2:8">
       <c r="B280" s="6" t="s">
         <v>606</v>
       </c>
@@ -25738,7 +25738,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="281" spans="2:8">
+    <row r="281" hidden="1" spans="2:8">
       <c r="B281" s="6" t="s">
         <v>608</v>
       </c>
@@ -25773,7 +25773,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="285" spans="2:8">
+    <row r="285" hidden="1" spans="2:8">
       <c r="B285" s="6" t="s">
         <v>616</v>
       </c>
@@ -25824,7 +25824,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="291" spans="2:8">
+    <row r="291" hidden="1" spans="2:8">
       <c r="B291" s="6" t="s">
         <v>628</v>
       </c>
@@ -25835,7 +25835,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="292" spans="2:8">
+    <row r="292" hidden="1" spans="2:8">
       <c r="B292" s="6" t="s">
         <v>630</v>
       </c>
@@ -25846,7 +25846,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="293" spans="2:8">
+    <row r="293" hidden="1" spans="2:8">
       <c r="B293" s="6" t="s">
         <v>632</v>
       </c>
@@ -25865,7 +25865,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="295" spans="2:8">
+    <row r="295" hidden="1" spans="2:8">
       <c r="B295" s="6" t="s">
         <v>636</v>
       </c>
@@ -25885,7 +25885,7 @@
       </c>
     </row>
     <row r="297" hidden="1"/>
-    <row r="298" spans="1:8">
+    <row r="298" hidden="1" spans="1:8">
       <c r="A298" s="4" t="s">
         <v>640</v>
       </c>
@@ -25899,7 +25899,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="299" spans="2:8">
+    <row r="299" hidden="1" spans="2:8">
       <c r="B299" s="6" t="s">
         <v>643</v>
       </c>
@@ -25910,7 +25910,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="300" spans="2:8">
+    <row r="300" hidden="1" spans="2:8">
       <c r="B300" s="6" t="s">
         <v>645</v>
       </c>
@@ -25921,7 +25921,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="301" spans="2:8">
+    <row r="301" hidden="1" spans="2:8">
       <c r="B301" s="6" t="s">
         <v>647</v>
       </c>
@@ -25932,7 +25932,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="302" spans="2:8">
+    <row r="302" hidden="1" spans="2:8">
       <c r="B302" s="6" t="s">
         <v>649</v>
       </c>
@@ -25951,7 +25951,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="304" spans="2:8">
+    <row r="304" hidden="1" spans="2:8">
       <c r="B304" s="6" t="s">
         <v>653</v>
       </c>
@@ -25970,7 +25970,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="306" spans="2:8">
+    <row r="306" hidden="1" spans="2:8">
       <c r="B306" s="6" t="s">
         <v>657</v>
       </c>
@@ -26005,7 +26005,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="310" spans="2:8">
+    <row r="310" hidden="1" spans="2:8">
       <c r="B310" s="6" t="s">
         <v>665</v>
       </c>
@@ -26048,7 +26048,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="315" spans="2:8">
+    <row r="315" hidden="1" spans="2:8">
       <c r="B315" s="6" t="s">
         <v>675</v>
       </c>
@@ -26087,7 +26087,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="320" spans="2:8">
+    <row r="320" hidden="1" spans="2:8">
       <c r="B320" s="6" t="s">
         <v>684</v>
       </c>
@@ -26106,7 +26106,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="322" spans="2:8">
+    <row r="322" hidden="1" spans="2:8">
       <c r="B322" s="6" t="s">
         <v>688</v>
       </c>
@@ -26157,7 +26157,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="328" spans="2:8">
+    <row r="328" hidden="1" spans="2:8">
       <c r="B328" s="6" t="s">
         <v>700</v>
       </c>
@@ -26168,7 +26168,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="329" spans="2:8">
+    <row r="329" hidden="1" spans="2:8">
       <c r="B329" s="6" t="s">
         <v>702</v>
       </c>
@@ -26219,7 +26219,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="335" spans="2:8">
+    <row r="335" hidden="1" spans="2:8">
       <c r="B335" s="6" t="s">
         <v>714</v>
       </c>
@@ -26238,7 +26238,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="337" spans="2:8">
+    <row r="337" hidden="1" spans="2:8">
       <c r="B337" s="6" t="s">
         <v>718</v>
       </c>
@@ -26249,7 +26249,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="338" spans="2:8">
+    <row r="338" hidden="1" spans="2:8">
       <c r="B338" s="6" t="s">
         <v>720</v>
       </c>
@@ -26284,7 +26284,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="342" spans="2:8">
+    <row r="342" hidden="1" spans="2:8">
       <c r="B342" s="6" t="s">
         <v>728</v>
       </c>
@@ -26319,7 +26319,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="346" spans="2:8">
+    <row r="346" hidden="1" spans="2:8">
       <c r="B346" s="6" t="s">
         <v>736</v>
       </c>
@@ -26358,7 +26358,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="351" spans="2:8">
+    <row r="351" hidden="1" spans="2:8">
       <c r="B351" s="6" t="s">
         <v>745</v>
       </c>
@@ -26409,7 +26409,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="357" spans="2:8">
+    <row r="357" hidden="1" spans="2:8">
       <c r="B357" s="6" t="s">
         <v>757</v>
       </c>
@@ -26420,7 +26420,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="358" spans="2:8">
+    <row r="358" hidden="1" spans="2:8">
       <c r="B358" s="6" t="s">
         <v>759</v>
       </c>
@@ -26447,7 +26447,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="361" spans="2:8">
+    <row r="361" hidden="1" spans="2:8">
       <c r="B361" s="6" t="s">
         <v>765</v>
       </c>
@@ -26482,7 +26482,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="365" spans="2:8">
+    <row r="365" hidden="1" spans="2:8">
       <c r="B365" s="6" t="s">
         <v>773</v>
       </c>
@@ -26517,7 +26517,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="369" spans="2:8">
+    <row r="369" hidden="1" spans="2:8">
       <c r="B369" s="6" t="s">
         <v>781</v>
       </c>
@@ -26536,7 +26536,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="371" spans="2:8">
+    <row r="371" hidden="1" spans="2:8">
       <c r="B371" s="6" t="s">
         <v>785</v>
       </c>
@@ -26547,7 +26547,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="372" spans="2:8">
+    <row r="372" hidden="1" spans="2:8">
       <c r="B372" s="6" t="s">
         <v>787</v>
       </c>
@@ -26570,7 +26570,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="375" spans="2:8">
+    <row r="375" hidden="1" spans="2:8">
       <c r="B375" s="6" t="s">
         <v>792</v>
       </c>
@@ -26589,7 +26589,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="377" spans="2:8">
+    <row r="377" hidden="1" spans="2:8">
       <c r="B377" s="6" t="s">
         <v>796</v>
       </c>
@@ -26600,7 +26600,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="378" spans="2:8">
+    <row r="378" hidden="1" spans="2:8">
       <c r="B378" s="6" t="s">
         <v>798</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="383" spans="2:8">
+    <row r="383" hidden="1" spans="2:8">
       <c r="B383" s="6" t="s">
         <v>808</v>
       </c>
@@ -26670,7 +26670,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="386" spans="2:8">
+    <row r="386" hidden="1" spans="2:8">
       <c r="B386" s="6" t="s">
         <v>814</v>
       </c>
@@ -26713,7 +26713,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="391" spans="2:8">
+    <row r="391" hidden="1" spans="2:8">
       <c r="B391" s="6" t="s">
         <v>824</v>
       </c>
@@ -26724,7 +26724,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="392" spans="2:8">
+    <row r="392" hidden="1" spans="2:8">
       <c r="B392" s="6" t="s">
         <v>826</v>
       </c>
@@ -26783,7 +26783,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="399" spans="2:8">
+    <row r="399" hidden="1" spans="2:8">
       <c r="B399" s="6" t="s">
         <v>840</v>
       </c>
@@ -26794,7 +26794,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="400" spans="2:8">
+    <row r="400" hidden="1" spans="2:8">
       <c r="B400" s="6" t="s">
         <v>842</v>
       </c>
@@ -26817,7 +26817,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="403" spans="2:8">
+    <row r="403" hidden="1" spans="2:8">
       <c r="B403" s="6" t="s">
         <v>847</v>
       </c>
@@ -26852,7 +26852,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="407" spans="2:8">
+    <row r="407" hidden="1" spans="2:8">
       <c r="B407" s="6" t="s">
         <v>854</v>
       </c>
@@ -26863,7 +26863,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="408" spans="2:8">
+    <row r="408" hidden="1" spans="2:8">
       <c r="B408" s="6" t="s">
         <v>856</v>
       </c>
@@ -26882,7 +26882,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="410" spans="2:8">
+    <row r="410" hidden="1" spans="2:8">
       <c r="B410" s="6" t="s">
         <v>860</v>
       </c>
@@ -26909,7 +26909,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="413" spans="2:8">
+    <row r="413" hidden="1" spans="2:8">
       <c r="B413" s="6" t="s">
         <v>866</v>
       </c>
@@ -26960,7 +26960,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="419" spans="2:8">
+    <row r="419" hidden="1" spans="2:8">
       <c r="B419" s="6" t="s">
         <v>877</v>
       </c>
@@ -26995,7 +26995,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="423" spans="2:8">
+    <row r="423" hidden="1" spans="2:8">
       <c r="B423" s="6" t="s">
         <v>885</v>
       </c>
@@ -27022,7 +27022,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="426" spans="2:8">
+    <row r="426" hidden="1" spans="2:8">
       <c r="B426" s="6" t="s">
         <v>891</v>
       </c>
@@ -27041,7 +27041,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="428" spans="2:8">
+    <row r="428" hidden="1" spans="2:8">
       <c r="B428" s="6" t="s">
         <v>895</v>
       </c>
@@ -27060,7 +27060,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="430" spans="2:3">
+    <row r="430" hidden="1" spans="2:3">
       <c r="B430" s="6" t="s">
         <v>899</v>
       </c>
@@ -27076,7 +27076,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="432" spans="2:8">
+    <row r="432" hidden="1" spans="2:8">
       <c r="B432" s="6" t="s">
         <v>902</v>
       </c>
@@ -27195,7 +27195,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="447" spans="2:8">
+    <row r="447" hidden="1" spans="2:8">
       <c r="B447" s="6" t="s">
         <v>931</v>
       </c>
@@ -27305,7 +27305,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="460" spans="2:8">
+    <row r="460" hidden="1" spans="2:8">
       <c r="B460" s="6" t="s">
         <v>958</v>
       </c>
@@ -27316,7 +27316,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="461" spans="2:8">
+    <row r="461" hidden="1" spans="2:8">
       <c r="B461" s="6" t="s">
         <v>960</v>
       </c>
@@ -27343,7 +27343,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="464" spans="2:8">
+    <row r="464" hidden="1" spans="2:8">
       <c r="B464" s="6" t="s">
         <v>966</v>
       </c>
@@ -27354,7 +27354,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="465" spans="2:8">
+    <row r="465" hidden="1" spans="2:8">
       <c r="B465" s="6" t="s">
         <v>968</v>
       </c>
@@ -27385,7 +27385,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="469" spans="2:8">
+    <row r="469" hidden="1" spans="2:8">
       <c r="B469" s="6" t="s">
         <v>975</v>
       </c>
@@ -27404,7 +27404,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="471" spans="2:8">
+    <row r="471" hidden="1" spans="2:8">
       <c r="B471" s="6" t="s">
         <v>979</v>
       </c>
@@ -27415,7 +27415,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="472" spans="2:8">
+    <row r="472" hidden="1" spans="2:8">
       <c r="B472" s="6" t="s">
         <v>981</v>
       </c>
@@ -27426,7 +27426,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="473" spans="2:8">
+    <row r="473" hidden="1" spans="2:8">
       <c r="B473" s="6" t="s">
         <v>983</v>
       </c>
@@ -27437,7 +27437,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="474" spans="2:8">
+    <row r="474" hidden="1" spans="2:8">
       <c r="B474" s="6" t="s">
         <v>985</v>
       </c>
@@ -27448,7 +27448,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="475" spans="2:8">
+    <row r="475" hidden="1" spans="2:8">
       <c r="B475" s="6" t="s">
         <v>987</v>
       </c>
@@ -27483,7 +27483,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="479" spans="2:8">
+    <row r="479" hidden="1" spans="2:8">
       <c r="B479" s="6" t="s">
         <v>995</v>
       </c>
@@ -27502,7 +27502,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="481" spans="2:8">
+    <row r="481" hidden="1" spans="2:8">
       <c r="B481" s="6" t="s">
         <v>999</v>
       </c>
@@ -27513,7 +27513,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="482" spans="2:8">
+    <row r="482" hidden="1" spans="2:8">
       <c r="B482" s="6" t="s">
         <v>1001</v>
       </c>
@@ -27524,7 +27524,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="483" spans="2:8">
+    <row r="483" hidden="1" spans="2:8">
       <c r="B483" s="6" t="s">
         <v>1003</v>
       </c>
@@ -27535,7 +27535,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="484" spans="2:8">
+    <row r="484" hidden="1" spans="2:8">
       <c r="B484" s="6" t="s">
         <v>1005</v>
       </c>
@@ -27546,7 +27546,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="485" spans="2:8">
+    <row r="485" hidden="1" spans="2:8">
       <c r="B485" s="6" t="s">
         <v>1007</v>
       </c>
@@ -27558,7 +27558,7 @@
       </c>
     </row>
     <row r="486" hidden="1"/>
-    <row r="487" spans="1:8">
+    <row r="487" hidden="1" spans="1:8">
       <c r="A487" s="4" t="s">
         <v>1009</v>
       </c>
@@ -27572,7 +27572,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="488" spans="2:8">
+    <row r="488" hidden="1" spans="2:8">
       <c r="B488" s="6" t="s">
         <v>1012</v>
       </c>
@@ -27583,7 +27583,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="489" spans="2:8">
+    <row r="489" hidden="1" spans="2:8">
       <c r="B489" s="6" t="s">
         <v>1014</v>
       </c>
@@ -27594,7 +27594,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="490" spans="2:8">
+    <row r="490" hidden="1" spans="2:8">
       <c r="B490" s="6" t="s">
         <v>1016</v>
       </c>
@@ -27621,7 +27621,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="493" spans="2:8">
+    <row r="493" hidden="1" spans="2:8">
       <c r="B493" s="6" t="s">
         <v>1022</v>
       </c>
@@ -27640,7 +27640,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="495" spans="2:8">
+    <row r="495" hidden="1" spans="2:8">
       <c r="B495" s="6" t="s">
         <v>1026</v>
       </c>
@@ -27651,7 +27651,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="496" spans="2:8">
+    <row r="496" hidden="1" spans="2:8">
       <c r="B496" s="6" t="s">
         <v>1028</v>
       </c>
@@ -27694,7 +27694,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="501" spans="2:8">
+    <row r="501" hidden="1" spans="2:8">
       <c r="B501" s="6" t="s">
         <v>1038</v>
       </c>
@@ -27741,7 +27741,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="507" spans="2:8">
+    <row r="507" hidden="1" spans="2:8">
       <c r="B507" s="6" t="s">
         <v>1049</v>
       </c>
@@ -27760,7 +27760,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="509" spans="2:8">
+    <row r="509" hidden="1" spans="2:8">
       <c r="B509" s="6" t="s">
         <v>1053</v>
       </c>
@@ -27771,7 +27771,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="510" spans="2:8">
+    <row r="510" hidden="1" spans="2:8">
       <c r="B510" s="6" t="s">
         <v>1055</v>
       </c>
@@ -27782,7 +27782,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="511" spans="2:8">
+    <row r="511" hidden="1" spans="2:8">
       <c r="B511" s="6" t="s">
         <v>1057</v>
       </c>
@@ -27825,7 +27825,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="516" spans="2:8">
+    <row r="516" hidden="1" spans="2:8">
       <c r="B516" s="6" t="s">
         <v>1067</v>
       </c>
@@ -27836,7 +27836,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="517" spans="2:8">
+    <row r="517" hidden="1" spans="2:8">
       <c r="B517" s="6" t="s">
         <v>1069</v>
       </c>
@@ -27847,7 +27847,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="518" spans="2:8">
+    <row r="518" hidden="1" spans="2:8">
       <c r="B518" s="6" t="s">
         <v>1071</v>
       </c>
@@ -27866,7 +27866,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="520" spans="2:8">
+    <row r="520" hidden="1" spans="2:8">
       <c r="B520" s="6" t="s">
         <v>1075</v>
       </c>
@@ -27901,7 +27901,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="524" spans="2:8">
+    <row r="524" hidden="1" spans="2:8">
       <c r="B524" s="6" t="s">
         <v>1083</v>
       </c>
@@ -27932,7 +27932,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="528" spans="2:8">
+    <row r="528" hidden="1" spans="2:8">
       <c r="B528" s="6" t="s">
         <v>1090</v>
       </c>
@@ -27943,7 +27943,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="529" spans="2:8">
+    <row r="529" hidden="1" spans="2:8">
       <c r="B529" s="6" t="s">
         <v>1092</v>
       </c>
@@ -27962,7 +27962,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="531" spans="2:8">
+    <row r="531" hidden="1" spans="2:8">
       <c r="B531" s="6" t="s">
         <v>1096</v>
       </c>
@@ -27997,7 +27997,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="535" spans="2:8">
+    <row r="535" hidden="1" spans="2:8">
       <c r="B535" s="6" t="s">
         <v>1104</v>
       </c>
@@ -28008,7 +28008,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="536" spans="2:8">
+    <row r="536" hidden="1" spans="2:8">
       <c r="B536" s="6" t="s">
         <v>1106</v>
       </c>
@@ -28027,7 +28027,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="538" spans="2:8">
+    <row r="538" hidden="1" spans="2:8">
       <c r="B538" s="6" t="s">
         <v>1110</v>
       </c>
@@ -28038,7 +28038,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="539" spans="2:8">
+    <row r="539" hidden="1" spans="2:8">
       <c r="B539" s="6" t="s">
         <v>1112</v>
       </c>
@@ -28049,7 +28049,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="540" spans="2:8">
+    <row r="540" hidden="1" spans="2:8">
       <c r="B540" s="6" t="s">
         <v>1114</v>
       </c>
@@ -28060,7 +28060,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="541" spans="2:8">
+    <row r="541" hidden="1" spans="2:8">
       <c r="B541" s="6" t="s">
         <v>1116</v>
       </c>
@@ -28071,7 +28071,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="542" spans="2:8">
+    <row r="542" hidden="1" spans="2:8">
       <c r="B542" s="6" t="s">
         <v>1118</v>
       </c>
@@ -28082,7 +28082,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="543" spans="2:8">
+    <row r="543" hidden="1" spans="2:8">
       <c r="B543" s="6" t="s">
         <v>1120</v>
       </c>
@@ -28093,7 +28093,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="544" spans="2:8">
+    <row r="544" hidden="1" spans="2:8">
       <c r="B544" s="6" t="s">
         <v>1122</v>
       </c>
@@ -28132,7 +28132,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="549" spans="2:8">
+    <row r="549" hidden="1" spans="2:8">
       <c r="B549" s="6" t="s">
         <v>1131</v>
       </c>
@@ -28143,7 +28143,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="550" spans="2:8">
+    <row r="550" hidden="1" spans="2:8">
       <c r="B550" s="6" t="s">
         <v>1133</v>
       </c>
@@ -28154,7 +28154,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="551" spans="2:8">
+    <row r="551" hidden="1" spans="2:8">
       <c r="B551" s="6" t="s">
         <v>1135</v>
       </c>
@@ -28173,7 +28173,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="553" spans="2:8">
+    <row r="553" hidden="1" spans="2:8">
       <c r="B553" s="6" t="s">
         <v>1139</v>
       </c>
@@ -28184,7 +28184,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="554" spans="2:8">
+    <row r="554" hidden="1" spans="2:8">
       <c r="B554" s="6" t="s">
         <v>1141</v>
       </c>
@@ -28219,7 +28219,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="558" spans="2:8">
+    <row r="558" hidden="1" spans="2:8">
       <c r="B558" s="6" t="s">
         <v>1149</v>
       </c>
@@ -28243,7 +28243,7 @@
       <c r="H560" s="17"/>
       <c r="I560" s="17"/>
     </row>
-    <row r="561" s="1" customFormat="1" hidden="1" spans="1:9">
+    <row r="561" s="1" customFormat="1" spans="1:9">
       <c r="A561" s="16"/>
       <c r="B561" s="17"/>
       <c r="C561" s="17">
@@ -28361,7 +28361,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="572" hidden="1" spans="2:8">
+    <row r="572" spans="2:8">
       <c r="B572" s="5" t="s">
         <v>1176</v>
       </c>
@@ -28850,7 +28850,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="618" hidden="1" spans="2:8">
+    <row r="618" spans="2:8">
       <c r="B618" s="5" t="s">
         <v>1299</v>
       </c>
@@ -29146,7 +29146,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="646" hidden="1" spans="2:8">
+    <row r="646" spans="2:8">
       <c r="B646" s="5" t="s">
         <v>1378</v>
       </c>
@@ -29523,7 +29523,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="682" hidden="1" spans="2:8">
+    <row r="682" spans="2:8">
       <c r="B682" s="5" t="s">
         <v>1474</v>
       </c>
@@ -29562,7 +29562,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="685" hidden="1" spans="2:8">
+    <row r="685" spans="2:8">
       <c r="B685" s="5" t="s">
         <v>1483</v>
       </c>
@@ -29657,7 +29657,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="694" hidden="1" spans="2:8">
+    <row r="694" spans="2:8">
       <c r="B694" s="5" t="s">
         <v>1507</v>
       </c>
@@ -30404,7 +30404,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="770" hidden="1" spans="2:8">
+    <row r="770" spans="2:8">
       <c r="B770" s="9" t="s">
         <v>1693</v>
       </c>
@@ -30437,7 +30437,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="773" hidden="1" spans="2:8">
+    <row r="773" spans="2:8">
       <c r="B773" s="19" t="s">
         <v>1701</v>
       </c>
@@ -30547,7 +30547,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="783" hidden="1" spans="2:8">
+    <row r="783" spans="2:8">
       <c r="B783" s="5" t="s">
         <v>1730</v>
       </c>
@@ -30561,7 +30561,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="784" hidden="1" spans="2:8">
+    <row r="784" spans="2:8">
       <c r="B784" s="5" t="s">
         <v>1733</v>
       </c>
@@ -30597,7 +30597,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="787" hidden="1" spans="2:8">
+    <row r="787" spans="2:8">
       <c r="B787" s="5" t="s">
         <v>1742</v>
       </c>
@@ -30611,7 +30611,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="788" hidden="1" spans="2:8">
+    <row r="788" spans="2:8">
       <c r="B788" s="5" t="s">
         <v>1745</v>
       </c>
@@ -30636,7 +30636,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="790" hidden="1" spans="2:8">
+    <row r="790" spans="2:8">
       <c r="B790" s="5" t="s">
         <v>1751</v>
       </c>
@@ -30696,7 +30696,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="795" hidden="1" spans="2:8">
+    <row r="795" spans="2:8">
       <c r="B795" s="5" t="s">
         <v>1764</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="809" hidden="1" spans="2:8">
+    <row r="809" spans="2:8">
       <c r="B809" s="5" t="s">
         <v>1805</v>
       </c>
@@ -30873,7 +30873,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="810" hidden="1" spans="2:8">
+    <row r="810" spans="2:8">
       <c r="B810" s="5" t="s">
         <v>1808</v>
       </c>
@@ -30887,7 +30887,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="811" hidden="1" spans="2:8">
+    <row r="811" spans="2:8">
       <c r="B811" s="5" t="s">
         <v>1811</v>
       </c>
@@ -30969,7 +30969,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="818" hidden="1" spans="2:8">
+    <row r="818" spans="2:8">
       <c r="B818" s="5" t="s">
         <v>1830</v>
       </c>
@@ -31057,7 +31057,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="826" hidden="1" spans="2:8">
+    <row r="826" spans="2:8">
       <c r="B826" s="5" t="s">
         <v>1852</v>
       </c>
@@ -31079,7 +31079,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="828" hidden="1" spans="2:8">
+    <row r="828" spans="2:8">
       <c r="B828" s="5" t="s">
         <v>1857</v>
       </c>
@@ -31093,7 +31093,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="829" hidden="1" spans="2:8">
+    <row r="829" spans="2:8">
       <c r="B829" s="5" t="s">
         <v>1860</v>
       </c>
@@ -31218,7 +31218,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="839" hidden="1" spans="2:8">
+    <row r="839" spans="2:8">
       <c r="B839" s="5" t="s">
         <v>1889</v>
       </c>
@@ -31263,7 +31263,7 @@
       </c>
     </row>
     <row r="843" hidden="1"/>
-    <row r="844" hidden="1" spans="1:6">
+    <row r="844" spans="1:6">
       <c r="A844" s="4" t="s">
         <v>1900</v>
       </c>
@@ -31285,7 +31285,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="846" hidden="1" spans="2:8">
+    <row r="846" spans="2:8">
       <c r="B846" s="5" t="s">
         <v>1905</v>
       </c>
@@ -31310,7 +31310,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="848" hidden="1" spans="2:6">
+    <row r="848" spans="2:6">
       <c r="B848" s="5" t="s">
         <v>1911</v>
       </c>
@@ -31394,7 +31394,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="857" hidden="1" spans="2:8">
+    <row r="857" spans="2:8">
       <c r="B857" s="5" t="s">
         <v>1931</v>
       </c>
@@ -31419,7 +31419,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="859" hidden="1" spans="2:8">
+    <row r="859" spans="2:8">
       <c r="B859" s="5" t="s">
         <v>1937</v>
       </c>
@@ -31458,7 +31458,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="862" hidden="1" spans="2:8">
+    <row r="862" spans="2:8">
       <c r="B862" s="5" t="s">
         <v>1946</v>
       </c>
@@ -31486,7 +31486,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="864" hidden="1" spans="2:8">
+    <row r="864" spans="2:8">
       <c r="B864" s="5" t="s">
         <v>1952</v>
       </c>
@@ -31539,7 +31539,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="868" hidden="1" spans="2:8">
+    <row r="868" spans="2:8">
       <c r="B868" s="5" t="s">
         <v>1963</v>
       </c>
@@ -31605,7 +31605,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="874" hidden="1" spans="2:6">
+    <row r="874" spans="2:6">
       <c r="B874" s="5" t="s">
         <v>1979</v>
       </c>
@@ -31616,7 +31616,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="875" hidden="1" spans="2:8">
+    <row r="875" spans="2:8">
       <c r="B875" s="5" t="s">
         <v>1981</v>
       </c>
@@ -31630,7 +31630,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="876" hidden="1" spans="2:8">
+    <row r="876" spans="2:8">
       <c r="B876" s="5" t="s">
         <v>1983</v>
       </c>
@@ -31703,7 +31703,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="883" hidden="1" spans="2:8">
+    <row r="883" spans="2:8">
       <c r="B883" s="5" t="s">
         <v>2000</v>
       </c>
@@ -31778,7 +31778,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="889" hidden="1" spans="2:8">
+    <row r="889" spans="2:8">
       <c r="B889" s="5" t="s">
         <v>2017</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="890" hidden="1" spans="2:8">
+    <row r="890" spans="2:8">
       <c r="B890" s="5" t="s">
         <v>2020</v>
       </c>
@@ -31820,7 +31820,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="892" hidden="1" spans="2:8">
+    <row r="892" spans="2:8">
       <c r="B892" s="5" t="s">
         <v>2026</v>
       </c>
@@ -31909,7 +31909,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="899" hidden="1" spans="2:8">
+    <row r="899" spans="2:8">
       <c r="B899" s="5" t="s">
         <v>2047</v>
       </c>
@@ -31923,7 +31923,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="900" hidden="1" spans="2:8">
+    <row r="900" spans="2:8">
       <c r="B900" s="5" t="s">
         <v>2050</v>
       </c>
@@ -31937,7 +31937,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="901" hidden="1" spans="2:8">
+    <row r="901" spans="2:8">
       <c r="B901" s="5" t="s">
         <v>2053</v>
       </c>
@@ -32095,7 +32095,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="916" hidden="1" spans="2:8">
+    <row r="916" spans="2:8">
       <c r="B916" s="5" t="s">
         <v>2091</v>
       </c>
@@ -32109,7 +32109,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="917" hidden="1" spans="2:8">
+    <row r="917" spans="2:8">
       <c r="B917" s="5" t="s">
         <v>2094</v>
       </c>
@@ -32170,7 +32170,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="922" hidden="1" spans="2:8">
+    <row r="922" spans="2:8">
       <c r="B922" s="5" t="s">
         <v>2109</v>
       </c>
@@ -32239,7 +32239,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="928" hidden="1" spans="2:8">
+    <row r="928" spans="2:8">
       <c r="B928" s="5" t="s">
         <v>2126</v>
       </c>
@@ -32435,7 +32435,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="945" hidden="1" spans="2:8">
+    <row r="945" spans="2:8">
       <c r="B945" s="5" t="s">
         <v>2175</v>
       </c>
@@ -32474,7 +32474,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="948" hidden="1" spans="2:8">
+    <row r="948" spans="2:8">
       <c r="B948" s="5" t="s">
         <v>2184</v>
       </c>
@@ -32572,7 +32572,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="961" hidden="1" spans="2:6">
+    <row r="961" spans="2:6">
       <c r="B961" s="5" t="s">
         <v>2199</v>
       </c>
@@ -32610,7 +32610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="965" hidden="1" spans="2:3">
+    <row r="965" spans="2:3">
       <c r="B965" s="5" t="s">
         <v>2206</v>
       </c>
@@ -32696,7 +32696,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="977" hidden="1" spans="2:6">
+    <row r="977" spans="2:6">
       <c r="B977" s="5" t="s">
         <v>2222</v>
       </c>
@@ -32737,7 +32737,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="981" hidden="1" spans="2:6">
+    <row r="981" spans="2:6">
       <c r="B981" s="5" t="s">
         <v>2230</v>
       </c>
@@ -32748,7 +32748,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="982" hidden="1" spans="2:6">
+    <row r="982" spans="2:6">
       <c r="B982" s="5" t="s">
         <v>2232</v>
       </c>
@@ -32824,7 +32824,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="990" hidden="1" spans="2:6">
+    <row r="990" spans="2:6">
       <c r="B990" s="5" t="s">
         <v>2247</v>
       </c>
@@ -32846,7 +32846,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="992" hidden="1" spans="2:6">
+    <row r="992" spans="2:6">
       <c r="B992" s="5" t="s">
         <v>2251</v>
       </c>
@@ -32857,7 +32857,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="993" hidden="1" spans="2:6">
+    <row r="993" spans="2:6">
       <c r="B993" s="5" t="s">
         <v>2253</v>
       </c>
@@ -32868,7 +32868,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="994" hidden="1" spans="2:6">
+    <row r="994" spans="2:6">
       <c r="B994" s="5" t="s">
         <v>2255</v>
       </c>
@@ -32879,7 +32879,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="995" hidden="1" spans="2:6">
+    <row r="995" spans="2:6">
       <c r="B995" s="5" t="s">
         <v>2257</v>
       </c>
@@ -33176,7 +33176,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="1041" hidden="1" spans="2:6">
+    <row r="1041" spans="2:6">
       <c r="B1041" s="5" t="s">
         <v>2317</v>
       </c>
@@ -33245,7 +33245,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="1050" hidden="1" spans="2:6">
+    <row r="1050" spans="2:6">
       <c r="B1050" s="5" t="s">
         <v>2331</v>
       </c>
@@ -33256,7 +33256,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="1051" hidden="1" spans="2:6">
+    <row r="1051" spans="2:6">
       <c r="B1051" s="5" t="s">
         <v>2333</v>
       </c>
@@ -33324,7 +33324,7 @@
       </c>
     </row>
     <row r="1059" hidden="1"/>
-    <row r="1060" hidden="1" spans="1:6">
+    <row r="1060" spans="1:6">
       <c r="A1060" s="4" t="s">
         <v>679</v>
       </c>
@@ -33419,7 +33419,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="1070" hidden="1" spans="2:6">
+    <row r="1070" spans="2:6">
       <c r="B1070" s="5" t="s">
         <v>2366</v>
       </c>
@@ -33430,7 +33430,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="1071" hidden="1" spans="2:6">
+    <row r="1071" spans="2:6">
       <c r="B1071" s="5" t="s">
         <v>2367</v>
       </c>
@@ -33441,7 +33441,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="1072" hidden="1" spans="2:6">
+    <row r="1072" spans="2:6">
       <c r="B1072" s="5" t="s">
         <v>2369</v>
       </c>
@@ -33460,7 +33460,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="1074" hidden="1" spans="2:6">
+    <row r="1074" spans="2:6">
       <c r="B1074" s="5" t="s">
         <v>2372</v>
       </c>
@@ -33487,7 +33487,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="1077" hidden="1" spans="2:6">
+    <row r="1077" spans="2:6">
       <c r="B1077" s="5" t="s">
         <v>2378</v>
       </c>
@@ -33528,7 +33528,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="1081" hidden="1" spans="2:6">
+    <row r="1081" spans="2:6">
       <c r="B1081" s="5" t="s">
         <v>2386</v>
       </c>
@@ -33550,7 +33550,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="1083" hidden="1" spans="2:6">
+    <row r="1083" spans="2:6">
       <c r="B1083" s="5" t="s">
         <v>2390</v>
       </c>
@@ -33569,7 +33569,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="1085" hidden="1" spans="2:6">
+    <row r="1085" spans="2:6">
       <c r="B1085" s="5" t="s">
         <v>2394</v>
       </c>
@@ -33587,7 +33587,7 @@
       </c>
     </row>
     <row r="1086" hidden="1"/>
-    <row r="1087" hidden="1" spans="1:6">
+    <row r="1087" spans="1:6">
       <c r="A1087" s="4" t="s">
         <v>742</v>
       </c>
@@ -33630,7 +33630,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="1092" hidden="1" spans="2:6">
+    <row r="1092" spans="2:6">
       <c r="B1092" s="5" t="s">
         <v>2405</v>
       </c>
@@ -33657,7 +33657,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="1095" hidden="1" spans="2:6">
+    <row r="1095" spans="2:6">
       <c r="B1095" s="5" t="s">
         <v>2411</v>
       </c>
@@ -33690,7 +33690,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="1098" hidden="1" spans="2:6">
+    <row r="1098" spans="2:6">
       <c r="B1098" s="5" t="s">
         <v>2418</v>
       </c>
@@ -33747,7 +33747,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1104" hidden="1" spans="2:6">
+    <row r="1104" spans="2:6">
       <c r="B1104" s="5" t="s">
         <v>2430</v>
       </c>
@@ -33832,7 +33832,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="1115" hidden="1" spans="2:6">
+    <row r="1115" spans="2:6">
       <c r="B1115" s="5" t="s">
         <v>2448</v>
       </c>
@@ -33846,7 +33846,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="1116" hidden="1" spans="2:6">
+    <row r="1116" spans="2:6">
       <c r="B1116" s="5" t="s">
         <v>2451</v>
       </c>
@@ -33939,7 +33939,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="1127" hidden="1" spans="2:6">
+    <row r="1127" spans="2:6">
       <c r="B1127" s="5" t="s">
         <v>2466</v>
       </c>
@@ -33973,7 +33973,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="1132" hidden="1" spans="2:6">
+    <row r="1132" spans="2:6">
       <c r="B1132" s="5" t="s">
         <v>2473</v>
       </c>
@@ -33992,7 +33992,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1134" hidden="1" spans="2:6">
+    <row r="1134" spans="2:6">
       <c r="B1134" s="5" t="s">
         <v>2477</v>
       </c>
@@ -34019,7 +34019,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="1137" hidden="1" spans="2:6">
+    <row r="1137" spans="2:6">
       <c r="B1137" s="5" t="s">
         <v>2483</v>
       </c>
@@ -34107,7 +34107,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="1148" hidden="1" spans="2:6">
+    <row r="1148" spans="2:6">
       <c r="B1148" s="5" t="s">
         <v>2499</v>
       </c>
@@ -34270,7 +34270,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="1170" hidden="1" spans="2:6">
+    <row r="1170" spans="2:6">
       <c r="B1170" s="5" t="s">
         <v>2530</v>
       </c>
@@ -34319,7 +34319,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="1175" hidden="1" spans="2:6">
+    <row r="1175" spans="2:6">
       <c r="B1175" s="5" t="s">
         <v>2540</v>
       </c>
@@ -34359,7 +34359,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="1180" hidden="1" spans="2:6">
+    <row r="1180" spans="2:6">
       <c r="B1180" s="5" t="s">
         <v>2549</v>
       </c>
@@ -34378,7 +34378,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="1182" hidden="1" spans="2:6">
+    <row r="1182" spans="2:6">
       <c r="B1182" s="5" t="s">
         <v>2553</v>
       </c>
@@ -34614,7 +34614,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="1215" hidden="1" spans="2:6">
+    <row r="1215" spans="2:6">
       <c r="B1215" s="5" t="s">
         <v>2599</v>
       </c>
@@ -34669,7 +34669,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="1220" hidden="1" spans="2:6">
+    <row r="1220" spans="2:6">
       <c r="B1220" s="5" t="s">
         <v>2608</v>
       </c>
@@ -34696,7 +34696,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="1223" hidden="1" spans="2:6">
+    <row r="1223" spans="2:6">
       <c r="B1223" s="5" t="s">
         <v>2612</v>
       </c>
@@ -34751,7 +34751,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="1228" hidden="1" spans="2:6">
+    <row r="1228" spans="2:6">
       <c r="B1228" s="5" t="s">
         <v>2621</v>
       </c>
@@ -34804,7 +34804,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="1235" hidden="1" spans="2:6">
+    <row r="1235" spans="2:6">
       <c r="B1235" s="5" t="s">
         <v>2631</v>
       </c>
@@ -34845,7 +34845,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="1239" hidden="1" spans="2:6">
+    <row r="1239" spans="2:6">
       <c r="B1239" s="5" t="s">
         <v>2638</v>
       </c>
@@ -34895,7 +34895,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="1245" hidden="1" spans="2:6">
+    <row r="1245" spans="2:6">
       <c r="B1245" s="5" t="s">
         <v>2646</v>
       </c>
@@ -34909,7 +34909,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="1246" hidden="1" spans="2:6">
+    <row r="1246" spans="2:6">
       <c r="B1246" s="5" t="s">
         <v>2649</v>
       </c>
@@ -34920,7 +34920,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="1247" hidden="1" spans="2:6">
+    <row r="1247" spans="2:6">
       <c r="B1247" s="5" t="s">
         <v>2651</v>
       </c>
@@ -35003,7 +35003,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="1257" hidden="1" spans="2:6">
+    <row r="1257" spans="2:6">
       <c r="B1257" s="5" t="s">
         <v>2667</v>
       </c>
@@ -35082,7 +35082,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="1265" hidden="1" spans="2:6">
+    <row r="1265" spans="2:6">
       <c r="B1265" s="5" t="s">
         <v>2684</v>
       </c>
@@ -35093,7 +35093,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1266" hidden="1" spans="2:6">
+    <row r="1266" spans="2:6">
       <c r="B1266" s="5" t="s">
         <v>2686</v>
       </c>
@@ -35104,7 +35104,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="1267" hidden="1" spans="2:6">
+    <row r="1267" spans="2:6">
       <c r="B1267" s="5" t="s">
         <v>2688</v>
       </c>
@@ -35134,7 +35134,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="1270" hidden="1" spans="2:6">
+    <row r="1270" spans="2:6">
       <c r="B1270" s="5" t="s">
         <v>2694</v>
       </c>
@@ -35148,7 +35148,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="1271" hidden="1" spans="2:6">
+    <row r="1271" spans="2:6">
       <c r="B1271" s="5" t="s">
         <v>2695</v>
       </c>
@@ -35162,7 +35162,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="1272" hidden="1" spans="2:6">
+    <row r="1272" spans="2:6">
       <c r="B1272" s="5" t="s">
         <v>2698</v>
       </c>
@@ -35176,7 +35176,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="1273" hidden="1" spans="2:6">
+    <row r="1273" spans="2:6">
       <c r="B1273" s="5" t="s">
         <v>2699</v>
       </c>
@@ -35190,7 +35190,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="1274" hidden="1" spans="2:6">
+    <row r="1274" spans="2:6">
       <c r="B1274" s="5" t="s">
         <v>2702</v>
       </c>
@@ -35201,7 +35201,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="1275" hidden="1" spans="2:6">
+    <row r="1275" spans="2:6">
       <c r="B1275" s="5" t="s">
         <v>2704</v>
       </c>
@@ -35239,7 +35239,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="1279" hidden="1" spans="2:6">
+    <row r="1279" spans="2:6">
       <c r="B1279" s="5" t="s">
         <v>2713</v>
       </c>
@@ -35294,7 +35294,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="1284" hidden="1" spans="2:6">
+    <row r="1284" spans="2:6">
       <c r="B1284" s="5" t="s">
         <v>2724</v>
       </c>
@@ -35308,7 +35308,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1285" hidden="1" spans="2:6">
+    <row r="1285" spans="2:6">
       <c r="B1285" s="5" t="s">
         <v>2727</v>
       </c>
@@ -35322,7 +35322,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1286" hidden="1" spans="2:6">
+    <row r="1286" spans="2:6">
       <c r="B1286" s="5" t="s">
         <v>2730</v>
       </c>
@@ -35333,7 +35333,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="1287" hidden="1" spans="2:6">
+    <row r="1287" spans="2:6">
       <c r="B1287" s="5" t="s">
         <v>2732</v>
       </c>
@@ -35367,7 +35367,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="1291" hidden="1" spans="2:6">
+    <row r="1291" spans="2:6">
       <c r="B1291" s="5" t="s">
         <v>2737</v>
       </c>
@@ -35392,7 +35392,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="1293" hidden="1" spans="2:6">
+    <row r="1293" spans="2:6">
       <c r="B1293" s="5" t="s">
         <v>2742</v>
       </c>
@@ -35411,7 +35411,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="1295" hidden="1" spans="2:6">
+    <row r="1295" spans="2:6">
       <c r="B1295" s="5" t="s">
         <v>2746</v>
       </c>
@@ -35422,7 +35422,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="1296" hidden="1" spans="2:6">
+    <row r="1296" spans="2:6">
       <c r="B1296" s="5" t="s">
         <v>2747</v>
       </c>
@@ -35433,7 +35433,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="1297" hidden="1" spans="2:6">
+    <row r="1297" spans="2:6">
       <c r="B1297" s="5" t="s">
         <v>2749</v>
       </c>
@@ -35444,7 +35444,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="1298" hidden="1" spans="2:6">
+    <row r="1298" spans="2:6">
       <c r="B1298" s="5" t="s">
         <v>2751</v>
       </c>
@@ -35463,7 +35463,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="1300" hidden="1" spans="2:6">
+    <row r="1300" spans="2:6">
       <c r="B1300" s="5" t="s">
         <v>2755</v>
       </c>
@@ -35493,7 +35493,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="1303" hidden="1" spans="2:6">
+    <row r="1303" spans="2:6">
       <c r="B1303" s="5" t="s">
         <v>2761</v>
       </c>
@@ -35563,7 +35563,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="1311" hidden="1" spans="2:6">
+    <row r="1311" spans="2:6">
       <c r="B1311" s="5" t="s">
         <v>2776</v>
       </c>
@@ -35574,7 +35574,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="1312" hidden="1" spans="2:6">
+    <row r="1312" spans="2:6">
       <c r="B1312" s="5" t="s">
         <v>2778</v>
       </c>
@@ -35593,7 +35593,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="1314" hidden="1" spans="2:6">
+    <row r="1314" spans="2:6">
       <c r="B1314" s="5" t="s">
         <v>2782</v>
       </c>
@@ -35626,7 +35626,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="1317" hidden="1" spans="2:6">
+    <row r="1317" spans="2:6">
       <c r="B1317" s="5" t="s">
         <v>2788</v>
       </c>
@@ -35648,7 +35648,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="1319" hidden="1" spans="2:6">
+    <row r="1319" spans="2:6">
       <c r="B1319" s="5" t="s">
         <v>2792</v>
       </c>
@@ -35667,7 +35667,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="1321" hidden="1" spans="2:6">
+    <row r="1321" spans="2:6">
       <c r="B1321" s="5" t="s">
         <v>2796</v>
       </c>
@@ -35708,7 +35708,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="1325" hidden="1" spans="2:6">
+    <row r="1325" spans="2:6">
       <c r="B1325" s="5" t="s">
         <v>2804</v>
       </c>
@@ -35735,7 +35735,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="1328" hidden="1" spans="2:6">
+    <row r="1328" spans="2:6">
       <c r="B1328" s="5" t="s">
         <v>2809</v>
       </c>
@@ -35773,7 +35773,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="1332" hidden="1" spans="2:6">
+    <row r="1332" spans="2:6">
       <c r="B1332" s="5" t="s">
         <v>2814</v>
       </c>
@@ -35787,7 +35787,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="1333" hidden="1" spans="2:6">
+    <row r="1333" spans="2:6">
       <c r="B1333" s="5" t="s">
         <v>2817</v>
       </c>
@@ -35801,7 +35801,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="1334" hidden="1" spans="2:6">
+    <row r="1334" spans="2:6">
       <c r="B1334" s="5" t="s">
         <v>2820</v>
       </c>
@@ -35817,7 +35817,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="1336" hidden="1" spans="2:6">
+    <row r="1336" spans="2:6">
       <c r="B1336" s="5" t="s">
         <v>2823</v>
       </c>
@@ -35855,7 +35855,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="1340" hidden="1" spans="2:6">
+    <row r="1340" spans="2:6">
       <c r="B1340" s="5" t="s">
         <v>2830</v>
       </c>
@@ -35866,7 +35866,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="1341" hidden="1" spans="2:6">
+    <row r="1341" spans="2:6">
       <c r="B1341" s="5" t="s">
         <v>2832</v>
       </c>
@@ -35877,7 +35877,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="1342" hidden="1" spans="2:6">
+    <row r="1342" spans="2:6">
       <c r="B1342" s="5" t="s">
         <v>2833</v>
       </c>
@@ -35898,7 +35898,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="1345" hidden="1" spans="2:6">
+    <row r="1345" spans="2:6">
       <c r="B1345" s="5" t="s">
         <v>2837</v>
       </c>
@@ -35931,7 +35931,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="1348" hidden="1" spans="2:6">
+    <row r="1348" spans="2:6">
       <c r="B1348" s="5" t="s">
         <v>2843</v>
       </c>
@@ -35942,7 +35942,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="1349" hidden="1" spans="2:6">
+    <row r="1349" spans="2:6">
       <c r="B1349" s="5" t="s">
         <v>2845</v>
       </c>
@@ -36054,7 +36054,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="1362" hidden="1" spans="2:6">
+    <row r="1362" spans="2:6">
       <c r="B1362" s="5" t="s">
         <v>2865</v>
       </c>
@@ -36081,7 +36081,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="1365" hidden="1" spans="2:6">
+    <row r="1365" spans="2:6">
       <c r="B1365" s="5" t="s">
         <v>2870</v>
       </c>
@@ -36095,7 +36095,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="1366" hidden="1" spans="2:6">
+    <row r="1366" spans="2:6">
       <c r="B1366" s="5" t="s">
         <v>2873</v>
       </c>
@@ -36106,7 +36106,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="1367" hidden="1" spans="2:6">
+    <row r="1367" spans="2:6">
       <c r="B1367" s="5" t="s">
         <v>2875</v>
       </c>
@@ -36128,7 +36128,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="1369" hidden="1" spans="2:6">
+    <row r="1369" spans="2:6">
       <c r="B1369" s="5" t="s">
         <v>2879</v>
       </c>
@@ -36139,7 +36139,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="1370" hidden="1" spans="2:6">
+    <row r="1370" spans="2:6">
       <c r="B1370" s="5" t="s">
         <v>2881</v>
       </c>
@@ -36150,7 +36150,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="1371" hidden="1" spans="2:6">
+    <row r="1371" spans="2:6">
       <c r="B1371" s="5" t="s">
         <v>2883</v>
       </c>
@@ -36180,7 +36180,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="1374" hidden="1" spans="2:6">
+    <row r="1374" spans="2:6">
       <c r="B1374" s="5" t="s">
         <v>2887</v>
       </c>
@@ -36207,7 +36207,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="1377" hidden="1" spans="2:6">
+    <row r="1377" spans="2:6">
       <c r="B1377" s="5" t="s">
         <v>2892</v>
       </c>
@@ -36239,7 +36239,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="1381" hidden="1" spans="2:6">
+    <row r="1381" spans="2:6">
       <c r="B1381" s="5" t="s">
         <v>2898</v>
       </c>
@@ -36291,7 +36291,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="1389" hidden="1" spans="2:6">
+    <row r="1389" spans="2:6">
       <c r="B1389" s="5" t="s">
         <v>2908</v>
       </c>
@@ -36305,7 +36305,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="1390" hidden="1" spans="2:6">
+    <row r="1390" spans="2:6">
       <c r="B1390" s="5" t="s">
         <v>2910</v>
       </c>
@@ -36332,7 +36332,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="1393" hidden="1" spans="2:6">
+    <row r="1393" spans="2:6">
       <c r="B1393" s="5" t="s">
         <v>2914</v>
       </c>
@@ -36343,7 +36343,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="1394" hidden="1" spans="2:6">
+    <row r="1394" spans="2:6">
       <c r="B1394" s="5" t="s">
         <v>2916</v>
       </c>
@@ -36354,7 +36354,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="1395" hidden="1" spans="2:6">
+    <row r="1395" spans="2:6">
       <c r="B1395" s="5" t="s">
         <v>2917</v>
       </c>
@@ -36365,7 +36365,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1396" hidden="1" spans="2:6">
+    <row r="1396" spans="2:6">
       <c r="B1396" s="5" t="s">
         <v>2919</v>
       </c>
@@ -36397,7 +36397,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="1400" hidden="1" spans="2:6">
+    <row r="1400" spans="2:6">
       <c r="B1400" s="5" t="s">
         <v>2925</v>
       </c>
@@ -36408,7 +36408,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="1401" hidden="1" spans="2:6">
+    <row r="1401" spans="2:6">
       <c r="B1401" s="5" t="s">
         <v>2927</v>
       </c>
@@ -36469,7 +36469,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="1409" hidden="1" spans="2:6">
+    <row r="1409" spans="2:6">
       <c r="B1409" s="5" t="s">
         <v>2939</v>
       </c>
@@ -36505,7 +36505,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="1414" hidden="1" spans="2:6">
+    <row r="1414" spans="2:6">
       <c r="B1414" s="5" t="s">
         <v>2945</v>
       </c>
@@ -36526,7 +36526,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="1417" hidden="1" spans="2:6">
+    <row r="1417" spans="2:6">
       <c r="B1417" s="5" t="s">
         <v>2949</v>
       </c>
@@ -36658,7 +36658,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="1435" hidden="1" spans="2:6">
+    <row r="1435" spans="2:6">
       <c r="B1435" s="5" t="s">
         <v>2975</v>
       </c>
@@ -36674,7 +36674,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="1437" hidden="1" spans="2:3">
+    <row r="1437" spans="2:3">
       <c r="B1437" s="5" t="s">
         <v>2978</v>
       </c>
@@ -36713,7 +36713,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="1443" hidden="1" spans="2:6">
+    <row r="1443" spans="2:6">
       <c r="B1443" s="5" t="s">
         <v>2984</v>
       </c>
@@ -36781,7 +36781,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="1453" hidden="1" spans="2:6">
+    <row r="1453" spans="2:6">
       <c r="B1453" s="5" t="s">
         <v>2997</v>
       </c>
@@ -36792,7 +36792,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="1454" hidden="1" spans="2:6">
+    <row r="1454" spans="2:6">
       <c r="B1454" s="5" t="s">
         <v>2999</v>
       </c>
@@ -36819,7 +36819,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="1457" hidden="1" spans="2:6">
+    <row r="1457" spans="2:6">
       <c r="B1457" s="5" t="s">
         <v>3004</v>
       </c>
@@ -36841,7 +36841,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="1459" hidden="1" spans="2:6">
+    <row r="1459" spans="2:6">
       <c r="B1459" s="5" t="s">
         <v>3008</v>
       </c>
@@ -36868,7 +36868,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="1462" hidden="1" spans="2:6">
+    <row r="1462" spans="2:6">
       <c r="B1462" s="5" t="s">
         <v>3013</v>
       </c>
@@ -36895,7 +36895,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="1465" hidden="1" spans="2:6">
+    <row r="1465" spans="2:6">
       <c r="B1465" s="5" t="s">
         <v>3018</v>
       </c>
@@ -36931,7 +36931,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="1468" hidden="1" spans="2:6">
+    <row r="1468" spans="2:6">
       <c r="B1468" s="5" t="s">
         <v>3025</v>
       </c>
@@ -36942,7 +36942,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="1469" hidden="1" spans="2:6">
+    <row r="1469" spans="2:6">
       <c r="B1469" s="5" t="s">
         <v>3027</v>
       </c>
@@ -36976,7 +36976,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="1474" hidden="1" spans="2:6">
+    <row r="1474" spans="2:6">
       <c r="B1474" s="5" t="s">
         <v>2531</v>
       </c>
@@ -36995,7 +36995,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1476" hidden="1" spans="2:6">
+    <row r="1476" spans="2:6">
       <c r="B1476" s="5" t="s">
         <v>3035</v>
       </c>
@@ -37006,7 +37006,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="1477" hidden="1" spans="2:6">
+    <row r="1477" spans="2:6">
       <c r="B1477" s="5" t="s">
         <v>3037</v>
       </c>
@@ -37020,7 +37020,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="1478" hidden="1" spans="2:6">
+    <row r="1478" spans="2:6">
       <c r="B1478" s="5" t="s">
         <v>3039</v>
       </c>
@@ -37052,7 +37052,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="1482" hidden="1" spans="2:6">
+    <row r="1482" spans="2:6">
       <c r="B1482" s="5" t="s">
         <v>3045</v>
       </c>
@@ -37063,7 +37063,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="1483" hidden="1" spans="2:6">
+    <row r="1483" spans="2:6">
       <c r="B1483" s="5" t="s">
         <v>3047</v>
       </c>
@@ -37079,7 +37079,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="1485" hidden="1" spans="2:6">
+    <row r="1485" spans="2:6">
       <c r="B1485" s="5" t="s">
         <v>3050</v>
       </c>
@@ -37090,7 +37090,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="1486" hidden="1" spans="2:6">
+    <row r="1486" spans="2:6">
       <c r="B1486" s="5" t="s">
         <v>3052</v>
       </c>
@@ -37128,7 +37128,7 @@
       </c>
     </row>
     <row r="1491" hidden="1"/>
-    <row r="1492" hidden="1" spans="1:6">
+    <row r="1492" spans="1:6">
       <c r="A1492" s="4" t="s">
         <v>3059</v>
       </c>
@@ -37142,7 +37142,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="1493" hidden="1" spans="2:6">
+    <row r="1493" spans="2:6">
       <c r="B1493" s="5" t="s">
         <v>3062</v>
       </c>
@@ -37158,7 +37158,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="1495" hidden="1" spans="2:6">
+    <row r="1495" spans="2:6">
       <c r="B1495" s="5" t="s">
         <v>3065</v>
       </c>
@@ -37169,7 +37169,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="1496" hidden="1" spans="2:6">
+    <row r="1496" spans="2:6">
       <c r="B1496" s="5" t="s">
         <v>3067</v>
       </c>
@@ -37191,7 +37191,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="1498" hidden="1" spans="2:6">
+    <row r="1498" spans="2:6">
       <c r="B1498" s="5" t="s">
         <v>3071</v>
       </c>
@@ -37202,7 +37202,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="1499" hidden="1" spans="2:6">
+    <row r="1499" spans="2:6">
       <c r="B1499" s="5" t="s">
         <v>3073</v>
       </c>
@@ -37250,7 +37250,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="1505" hidden="1" spans="2:6">
+    <row r="1505" spans="2:6">
       <c r="B1505" s="5" t="s">
         <v>3082</v>
       </c>
@@ -37261,7 +37261,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="1506" hidden="1" spans="2:6">
+    <row r="1506" spans="2:6">
       <c r="B1506" s="5" t="s">
         <v>3084</v>
       </c>
@@ -37283,7 +37283,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="1508" hidden="1" spans="2:6">
+    <row r="1508" spans="2:6">
       <c r="B1508" s="5" t="s">
         <v>3088</v>
       </c>
@@ -37326,7 +37326,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="1513" hidden="1" spans="2:6">
+    <row r="1513" spans="2:6">
       <c r="B1513" s="5" t="s">
         <v>3096</v>
       </c>
@@ -37337,7 +37337,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="1514" hidden="1" spans="2:6">
+    <row r="1514" spans="2:6">
       <c r="B1514" s="5" t="s">
         <v>3098</v>
       </c>
@@ -37348,7 +37348,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="1515" hidden="1" spans="2:6">
+    <row r="1515" spans="2:6">
       <c r="B1515" s="5" t="s">
         <v>3100</v>
       </c>
@@ -37359,7 +37359,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="1516" hidden="1" spans="2:6">
+    <row r="1516" spans="2:6">
       <c r="B1516" s="5" t="s">
         <v>3102</v>
       </c>
@@ -37370,7 +37370,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="1517" hidden="1" spans="2:6">
+    <row r="1517" spans="2:6">
       <c r="B1517" s="5" t="s">
         <v>3104</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="1519" hidden="1" spans="2:6">
+    <row r="1519" spans="2:6">
       <c r="B1519" s="5" t="s">
         <v>3107</v>
       </c>
@@ -37397,7 +37397,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="1520" hidden="1" spans="2:6">
+    <row r="1520" spans="2:6">
       <c r="B1520" s="5" t="s">
         <v>3109</v>
       </c>
@@ -37411,7 +37411,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1521" hidden="1" spans="2:6">
+    <row r="1521" spans="2:6">
       <c r="B1521" s="5" t="s">
         <v>3111</v>
       </c>
@@ -37422,7 +37422,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="1522" hidden="1" spans="2:6">
+    <row r="1522" spans="2:6">
       <c r="B1522" s="5" t="s">
         <v>3113</v>
       </c>
@@ -37433,7 +37433,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="1523" hidden="1" spans="2:6">
+    <row r="1523" spans="2:6">
       <c r="B1523" s="5" t="s">
         <v>3115</v>
       </c>
@@ -37452,7 +37452,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="1525" hidden="1" spans="2:6">
+    <row r="1525" spans="2:6">
       <c r="B1525" s="5" t="s">
         <v>3118</v>
       </c>
@@ -37475,7 +37475,7 @@
       </c>
     </row>
     <row r="1528" hidden="1"/>
-    <row r="1529" hidden="1" spans="1:6">
+    <row r="1529" spans="1:6">
       <c r="A1529" s="4" t="s">
         <v>3122</v>
       </c>
@@ -37500,7 +37500,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="1531" hidden="1" spans="2:6">
+    <row r="1531" spans="2:6">
       <c r="B1531" s="5" t="s">
         <v>3127</v>
       </c>
@@ -37598,7 +37598,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="1541" hidden="1" spans="2:6">
+    <row r="1541" spans="2:6">
       <c r="B1541" s="5" t="s">
         <v>3146</v>
       </c>
@@ -37678,7 +37678,7 @@
         <v>3158</v>
       </c>
     </row>
-    <row r="1551" hidden="1" spans="2:6">
+    <row r="1551" spans="2:6">
       <c r="B1551" s="5" t="s">
         <v>3159</v>
       </c>
@@ -37694,7 +37694,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="1553" hidden="1" spans="2:6">
+    <row r="1553" spans="2:6">
       <c r="B1553" s="5" t="s">
         <v>3162</v>
       </c>
@@ -37737,7 +37737,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="1558" hidden="1" spans="2:6">
+    <row r="1558" spans="2:6">
       <c r="B1558" s="5" t="s">
         <v>3170</v>
       </c>
@@ -37748,7 +37748,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="1559" hidden="1" spans="2:6">
+    <row r="1559" spans="2:6">
       <c r="B1559" s="5" t="s">
         <v>3172</v>
       </c>
@@ -37775,7 +37775,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="1562" hidden="1" spans="2:6">
+    <row r="1562" spans="2:6">
       <c r="B1562" s="5" t="s">
         <v>3177</v>
       </c>
@@ -37791,7 +37791,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="1564" hidden="1" spans="2:6">
+    <row r="1564" spans="2:6">
       <c r="B1564" s="5" t="s">
         <v>3180</v>
       </c>
@@ -37826,7 +37826,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="1568" hidden="1" spans="2:6">
+    <row r="1568" spans="2:6">
       <c r="B1568" s="5" t="s">
         <v>3186</v>
       </c>
@@ -37878,7 +37878,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="1575" hidden="1" spans="2:6">
+    <row r="1575" spans="2:6">
       <c r="B1575" s="5" t="s">
         <v>3195</v>
       </c>
@@ -37889,7 +37889,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="1576" hidden="1" spans="2:6">
+    <row r="1576" spans="2:6">
       <c r="B1576" s="5" t="s">
         <v>3197</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="1578" hidden="1" spans="2:6">
+    <row r="1578" spans="2:6">
       <c r="B1578" s="5" t="s">
         <v>3200</v>
       </c>
@@ -37995,7 +37995,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="1590" hidden="1" spans="2:6">
+    <row r="1590" spans="2:6">
       <c r="B1590" s="5" t="s">
         <v>3217</v>
       </c>
@@ -38119,7 +38119,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="1604" hidden="1" spans="2:6">
+    <row r="1604" spans="2:6">
       <c r="B1604" s="5" t="s">
         <v>3240</v>
       </c>
@@ -38216,7 +38216,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="1615" hidden="1" spans="2:6">
+    <row r="1615" spans="2:6">
       <c r="B1615" s="5" t="s">
         <v>3258</v>
       </c>
@@ -38238,7 +38238,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="1617" hidden="1" spans="2:6">
+    <row r="1617" spans="2:6">
       <c r="B1617" s="5" t="s">
         <v>3262</v>
       </c>
@@ -40368,7 +40368,7 @@
   <autoFilter ref="C1:C1697">
     <filterColumn colId="0">
       <customFilters>
-        <customFilter operator="equal" val="2"/>
+        <customFilter operator="equal" val="33"/>
       </customFilters>
     </filterColumn>
     <extLst/>

--- a/voca.xlsx
+++ b/voca.xlsx
@@ -21773,8 +21773,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -21840,6 +21840,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -21848,7 +21878,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -21856,7 +21886,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -21878,55 +21947,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -21940,33 +21963,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -22051,31 +22051,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22093,13 +22093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22111,13 +22111,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22129,13 +22141,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22153,49 +22183,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22207,25 +22219,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22236,6 +22236,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -22258,16 +22284,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -22287,52 +22322,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -22347,7 +22347,7 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -22365,124 +22365,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -22920,9 +22920,9 @@
   <dimension ref="A1:I1994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A862" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1243" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B948" sqref="B948"/>
+      <selection pane="bottomLeft" activeCell="C826" sqref="C826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="20.25"/>
@@ -22931,8 +22931,8 @@
     <col min="2" max="2" width="22.4666666666667" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5333333333333" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="39.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" style="5" customWidth="1"/>
     <col min="7" max="7" width="19.5666666666667" customWidth="1"/>
     <col min="8" max="8" width="86.5" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.125" style="5" customWidth="1"/>
@@ -28231,7 +28231,7 @@
       </c>
     </row>
     <row r="559" hidden="1"/>
-    <row r="560" s="1" customFormat="1" hidden="1" spans="1:9">
+    <row r="560" s="1" customFormat="1" spans="1:9">
       <c r="A560" s="16"/>
       <c r="B560" s="17"/>
       <c r="C560" s="17">
@@ -28243,7 +28243,7 @@
       <c r="H560" s="17"/>
       <c r="I560" s="17"/>
     </row>
-    <row r="561" s="1" customFormat="1" spans="1:9">
+    <row r="561" s="1" customFormat="1" hidden="1" spans="1:9">
       <c r="A561" s="16"/>
       <c r="B561" s="17"/>
       <c r="C561" s="17">
@@ -28289,7 +28289,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="566" hidden="1" spans="2:8">
+    <row r="566" spans="2:8">
       <c r="B566" s="5" t="s">
         <v>1159</v>
       </c>
@@ -28336,7 +28336,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="570" hidden="1" spans="2:8">
+    <row r="570" spans="2:8">
       <c r="B570" s="5" t="s">
         <v>1170</v>
       </c>
@@ -28361,7 +28361,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="572" spans="2:8">
+    <row r="572" hidden="1" spans="2:8">
       <c r="B572" s="5" t="s">
         <v>1176</v>
       </c>
@@ -28454,7 +28454,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="581" hidden="1" spans="2:8">
+    <row r="581" spans="2:8">
       <c r="B581" s="5" t="s">
         <v>1200</v>
       </c>
@@ -28502,7 +28502,7 @@
       </c>
     </row>
     <row r="585" hidden="1"/>
-    <row r="586" hidden="1" spans="1:8">
+    <row r="586" spans="1:8">
       <c r="A586" s="4" t="s">
         <v>30</v>
       </c>
@@ -28541,7 +28541,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="589" hidden="1" spans="2:8">
+    <row r="589" spans="2:8">
       <c r="B589" s="5" t="s">
         <v>1221</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="593" hidden="1" spans="2:8">
+    <row r="593" spans="2:8">
       <c r="B593" s="5" t="s">
         <v>1233</v>
       </c>
@@ -28643,7 +28643,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="598" hidden="1" spans="2:8">
+    <row r="598" spans="2:8">
       <c r="B598" s="5" t="s">
         <v>1247</v>
       </c>
@@ -28821,7 +28821,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="615" hidden="1" spans="2:8">
+    <row r="615" spans="2:8">
       <c r="B615" s="5" t="s">
         <v>1293</v>
       </c>
@@ -28850,7 +28850,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="618" spans="2:8">
+    <row r="618" hidden="1" spans="2:8">
       <c r="B618" s="5" t="s">
         <v>1299</v>
       </c>
@@ -29146,7 +29146,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="646" spans="2:8">
+    <row r="646" hidden="1" spans="2:8">
       <c r="B646" s="5" t="s">
         <v>1378</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="655" hidden="1" spans="2:8">
+    <row r="655" spans="2:8">
       <c r="B655" s="5" t="s">
         <v>1402</v>
       </c>
@@ -29271,7 +29271,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="658" hidden="1" spans="2:8">
+    <row r="658" spans="2:8">
       <c r="B658" s="5" t="s">
         <v>1409</v>
       </c>
@@ -29443,7 +29443,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="675" hidden="1" spans="2:8">
+    <row r="675" spans="2:8">
       <c r="B675" s="5" t="s">
         <v>1454</v>
       </c>
@@ -29471,7 +29471,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="677" hidden="1" spans="2:8">
+    <row r="677" spans="2:8">
       <c r="B677" s="5" t="s">
         <v>1461</v>
       </c>
@@ -29523,7 +29523,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="682" spans="2:8">
+    <row r="682" hidden="1" spans="2:8">
       <c r="B682" s="5" t="s">
         <v>1474</v>
       </c>
@@ -29537,7 +29537,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="683" hidden="1" spans="2:8">
+    <row r="683" spans="2:8">
       <c r="B683" s="5" t="s">
         <v>1477</v>
       </c>
@@ -29562,7 +29562,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="685" spans="2:8">
+    <row r="685" hidden="1" spans="2:8">
       <c r="B685" s="5" t="s">
         <v>1483</v>
       </c>
@@ -29643,7 +29643,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="693" hidden="1" spans="2:8">
+    <row r="693" spans="2:8">
       <c r="B693" s="5" t="s">
         <v>1504</v>
       </c>
@@ -29657,7 +29657,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="694" spans="2:8">
+    <row r="694" hidden="1" spans="2:8">
       <c r="B694" s="5" t="s">
         <v>1507</v>
       </c>
@@ -29789,7 +29789,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="706" hidden="1" spans="2:8">
+    <row r="706" spans="2:8">
       <c r="B706" s="5" t="s">
         <v>1542</v>
       </c>
@@ -29803,7 +29803,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="707" hidden="1" spans="2:8">
+    <row r="707" spans="2:8">
       <c r="B707" s="5" t="s">
         <v>1545</v>
       </c>
@@ -29817,7 +29817,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="708" hidden="1" spans="2:8">
+    <row r="708" spans="2:8">
       <c r="B708" s="5" t="s">
         <v>1548</v>
       </c>
@@ -29919,7 +29919,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="717" hidden="1" spans="2:8">
+    <row r="717" spans="2:8">
       <c r="B717" s="5" t="s">
         <v>1575</v>
       </c>
@@ -29933,7 +29933,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="718" hidden="1" spans="2:8">
+    <row r="718" spans="2:8">
       <c r="B718" s="5" t="s">
         <v>1578</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="719" hidden="1" spans="2:8">
+    <row r="719" spans="2:8">
       <c r="B719" s="5" t="s">
         <v>1581</v>
       </c>
@@ -29983,7 +29983,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="722" hidden="1" spans="2:8">
+    <row r="722" spans="2:8">
       <c r="B722" s="5" t="s">
         <v>1590</v>
       </c>
@@ -30073,7 +30073,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="733" hidden="1" spans="2:8">
+    <row r="733" spans="2:8">
       <c r="B733" s="5" t="s">
         <v>1612</v>
       </c>
@@ -30135,7 +30135,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="740" hidden="1" spans="2:8">
+    <row r="740" spans="2:8">
       <c r="B740" s="5" t="s">
         <v>1627</v>
       </c>
@@ -30200,7 +30200,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="747" hidden="1" spans="2:8">
+    <row r="747" spans="2:8">
       <c r="B747" s="5" t="s">
         <v>1643</v>
       </c>
@@ -30246,7 +30246,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="752" hidden="1" spans="2:6">
+    <row r="752" spans="2:6">
       <c r="B752" s="5" t="s">
         <v>1654</v>
       </c>
@@ -30404,7 +30404,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="770" spans="2:8">
+    <row r="770" hidden="1" spans="2:8">
       <c r="B770" s="9" t="s">
         <v>1693</v>
       </c>
@@ -30437,7 +30437,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="773" spans="2:8">
+    <row r="773" hidden="1" spans="2:8">
       <c r="B773" s="19" t="s">
         <v>1701</v>
       </c>
@@ -30547,7 +30547,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="783" spans="2:8">
+    <row r="783" hidden="1" spans="2:8">
       <c r="B783" s="5" t="s">
         <v>1730</v>
       </c>
@@ -30561,7 +30561,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="784" spans="2:8">
+    <row r="784" hidden="1" spans="2:8">
       <c r="B784" s="5" t="s">
         <v>1733</v>
       </c>
@@ -30597,7 +30597,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="787" spans="2:8">
+    <row r="787" hidden="1" spans="2:8">
       <c r="B787" s="5" t="s">
         <v>1742</v>
       </c>
@@ -30611,7 +30611,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="788" spans="2:8">
+    <row r="788" hidden="1" spans="2:8">
       <c r="B788" s="5" t="s">
         <v>1745</v>
       </c>
@@ -30636,7 +30636,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="790" spans="2:8">
+    <row r="790" hidden="1" spans="2:8">
       <c r="B790" s="5" t="s">
         <v>1751</v>
       </c>
@@ -30651,7 +30651,7 @@
       </c>
     </row>
     <row r="791" hidden="1"/>
-    <row r="792" hidden="1" spans="1:8">
+    <row r="792" spans="1:8">
       <c r="A792" s="4" t="s">
         <v>1754</v>
       </c>
@@ -30668,7 +30668,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="793" hidden="1" spans="2:8">
+    <row r="793" spans="2:8">
       <c r="B793" s="5" t="s">
         <v>1758</v>
       </c>
@@ -30682,7 +30682,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="794" hidden="1" spans="2:8">
+    <row r="794" spans="2:8">
       <c r="B794" s="5" t="s">
         <v>1761</v>
       </c>
@@ -30701,7 +30701,7 @@
         <v>1764</v>
       </c>
       <c r="C795" s="5">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F795" s="5" t="s">
         <v>1765</v>
@@ -30710,7 +30710,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="796" hidden="1" spans="2:8">
+    <row r="796" spans="2:8">
       <c r="B796" s="5" t="s">
         <v>1767</v>
       </c>
@@ -30809,7 +30809,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="805" hidden="1" spans="2:8">
+    <row r="805" spans="2:8">
       <c r="B805" s="5" t="s">
         <v>1793</v>
       </c>
@@ -30823,7 +30823,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="806" hidden="1" spans="2:8">
+    <row r="806" spans="2:8">
       <c r="B806" s="5" t="s">
         <v>1796</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="809" spans="2:8">
+    <row r="809" hidden="1" spans="2:8">
       <c r="B809" s="5" t="s">
         <v>1805</v>
       </c>
@@ -30873,7 +30873,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="810" spans="2:8">
+    <row r="810" hidden="1" spans="2:8">
       <c r="B810" s="5" t="s">
         <v>1808</v>
       </c>
@@ -30887,7 +30887,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="811" spans="2:8">
+    <row r="811" hidden="1" spans="2:8">
       <c r="B811" s="5" t="s">
         <v>1811</v>
       </c>
@@ -30916,7 +30916,7 @@
       </c>
     </row>
     <row r="813" hidden="1"/>
-    <row r="814" hidden="1" spans="1:8">
+    <row r="814" spans="1:8">
       <c r="A814" s="4" t="s">
         <v>1817</v>
       </c>
@@ -30944,7 +30944,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="816" hidden="1" spans="2:8">
+    <row r="816" spans="2:8">
       <c r="B816" s="5" t="s">
         <v>1824</v>
       </c>
@@ -30969,7 +30969,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="818" spans="2:8">
+    <row r="818" hidden="1" spans="2:8">
       <c r="B818" s="5" t="s">
         <v>1830</v>
       </c>
@@ -31043,7 +31043,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="825" hidden="1" spans="2:8">
+    <row r="825" spans="2:8">
       <c r="B825" s="5" t="s">
         <v>1849</v>
       </c>
@@ -31057,7 +31057,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="826" spans="2:8">
+    <row r="826" hidden="1" spans="2:8">
       <c r="B826" s="5" t="s">
         <v>1852</v>
       </c>
@@ -31079,7 +31079,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="828" spans="2:8">
+    <row r="828" hidden="1" spans="2:8">
       <c r="B828" s="5" t="s">
         <v>1857</v>
       </c>
@@ -31093,7 +31093,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="829" spans="2:8">
+    <row r="829" hidden="1" spans="2:8">
       <c r="B829" s="5" t="s">
         <v>1860</v>
       </c>
@@ -31107,7 +31107,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="830" hidden="1" spans="2:8">
+    <row r="830" spans="2:8">
       <c r="B830" s="5" t="s">
         <v>1863</v>
       </c>
@@ -31121,7 +31121,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="831" hidden="1" spans="2:8">
+    <row r="831" spans="2:8">
       <c r="B831" s="5" t="s">
         <v>1866</v>
       </c>
@@ -31157,7 +31157,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="834" hidden="1" spans="2:8">
+    <row r="834" spans="2:8">
       <c r="B834" s="5" t="s">
         <v>1875</v>
       </c>
@@ -31182,7 +31182,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="836" hidden="1" spans="2:8">
+    <row r="836" spans="2:8">
       <c r="B836" s="5" t="s">
         <v>1881</v>
       </c>
@@ -31204,7 +31204,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="838" hidden="1" spans="2:8">
+    <row r="838" spans="2:8">
       <c r="B838" s="5" t="s">
         <v>1886</v>
       </c>
@@ -31218,7 +31218,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="839" spans="2:8">
+    <row r="839" hidden="1" spans="2:8">
       <c r="B839" s="5" t="s">
         <v>1889</v>
       </c>
@@ -31263,7 +31263,7 @@
       </c>
     </row>
     <row r="843" hidden="1"/>
-    <row r="844" spans="1:6">
+    <row r="844" hidden="1" spans="1:6">
       <c r="A844" s="4" t="s">
         <v>1900</v>
       </c>
@@ -31285,7 +31285,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="846" spans="2:8">
+    <row r="846" hidden="1" spans="2:8">
       <c r="B846" s="5" t="s">
         <v>1905</v>
       </c>
@@ -31310,7 +31310,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="848" spans="2:6">
+    <row r="848" hidden="1" spans="2:6">
       <c r="B848" s="5" t="s">
         <v>1911</v>
       </c>
@@ -31372,7 +31372,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="855" hidden="1" spans="2:8">
+    <row r="855" spans="2:8">
       <c r="B855" s="5" t="s">
         <v>1926</v>
       </c>
@@ -31394,7 +31394,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="857" spans="2:8">
+    <row r="857" hidden="1" spans="2:8">
       <c r="B857" s="5" t="s">
         <v>1931</v>
       </c>
@@ -31419,7 +31419,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="859" spans="2:8">
+    <row r="859" hidden="1" spans="2:8">
       <c r="B859" s="5" t="s">
         <v>1937</v>
       </c>
@@ -31444,7 +31444,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="861" hidden="1" spans="2:8">
+    <row r="861" spans="2:8">
       <c r="B861" s="5" t="s">
         <v>1943</v>
       </c>
@@ -31458,7 +31458,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="862" spans="2:8">
+    <row r="862" hidden="1" spans="2:8">
       <c r="B862" s="5" t="s">
         <v>1946</v>
       </c>
@@ -31472,7 +31472,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="863" hidden="1" spans="2:8">
+    <row r="863" spans="2:8">
       <c r="B863" s="5" t="s">
         <v>1949</v>
       </c>
@@ -31486,7 +31486,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="864" spans="2:8">
+    <row r="864" hidden="1" spans="2:8">
       <c r="B864" s="5" t="s">
         <v>1952</v>
       </c>
@@ -31500,7 +31500,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="865" hidden="1" spans="2:8">
+    <row r="865" spans="2:8">
       <c r="B865" s="5" t="s">
         <v>1955</v>
       </c>
@@ -31514,7 +31514,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="866" hidden="1" spans="2:6">
+    <row r="866" spans="2:6">
       <c r="B866" s="5" t="s">
         <v>1958</v>
       </c>
@@ -31525,7 +31525,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="867" hidden="1" spans="2:8">
+    <row r="867" spans="2:8">
       <c r="B867" s="5" t="s">
         <v>1960</v>
       </c>
@@ -31539,7 +31539,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="868" spans="2:8">
+    <row r="868" hidden="1" spans="2:8">
       <c r="B868" s="5" t="s">
         <v>1963</v>
       </c>
@@ -31553,7 +31553,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="869" hidden="1" spans="2:6">
+    <row r="869" spans="2:6">
       <c r="B869" s="5" t="s">
         <v>1966</v>
       </c>
@@ -31605,7 +31605,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="874" spans="2:6">
+    <row r="874" hidden="1" spans="2:6">
       <c r="B874" s="5" t="s">
         <v>1979</v>
       </c>
@@ -31616,7 +31616,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="875" spans="2:8">
+    <row r="875" hidden="1" spans="2:8">
       <c r="B875" s="5" t="s">
         <v>1981</v>
       </c>
@@ -31630,7 +31630,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="876" spans="2:8">
+    <row r="876" hidden="1" spans="2:8">
       <c r="B876" s="5" t="s">
         <v>1983</v>
       </c>
@@ -31670,7 +31670,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="880" hidden="1" spans="2:8">
+    <row r="880" spans="2:8">
       <c r="B880" s="5" t="s">
         <v>1992</v>
       </c>
@@ -31703,7 +31703,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="883" spans="2:8">
+    <row r="883" hidden="1" spans="2:8">
       <c r="B883" s="5" t="s">
         <v>2000</v>
       </c>
@@ -31739,7 +31739,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="886" hidden="1" spans="2:8">
+    <row r="886" spans="2:8">
       <c r="B886" s="5" t="s">
         <v>2008</v>
       </c>
@@ -31753,7 +31753,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="887" hidden="1" spans="2:8">
+    <row r="887" spans="2:8">
       <c r="B887" s="5" t="s">
         <v>2011</v>
       </c>
@@ -31778,7 +31778,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="889" spans="2:8">
+    <row r="889" hidden="1" spans="2:8">
       <c r="B889" s="5" t="s">
         <v>2017</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="890" spans="2:8">
+    <row r="890" hidden="1" spans="2:8">
       <c r="B890" s="5" t="s">
         <v>2020</v>
       </c>
@@ -31806,7 +31806,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="891" hidden="1" spans="2:8">
+    <row r="891" spans="2:8">
       <c r="B891" s="5" t="s">
         <v>2023</v>
       </c>
@@ -31820,7 +31820,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="892" spans="2:8">
+    <row r="892" hidden="1" spans="2:8">
       <c r="B892" s="5" t="s">
         <v>2026</v>
       </c>
@@ -31834,7 +31834,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="893" hidden="1" spans="2:8">
+    <row r="893" spans="2:8">
       <c r="B893" s="5" t="s">
         <v>2029</v>
       </c>
@@ -31881,7 +31881,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="897" hidden="1" spans="2:8">
+    <row r="897" spans="2:8">
       <c r="B897" s="5" t="s">
         <v>2041</v>
       </c>
@@ -31895,7 +31895,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="898" hidden="1" spans="2:8">
+    <row r="898" spans="2:8">
       <c r="B898" s="5" t="s">
         <v>2044</v>
       </c>
@@ -31909,7 +31909,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="899" spans="2:8">
+    <row r="899" hidden="1" spans="2:8">
       <c r="B899" s="5" t="s">
         <v>2047</v>
       </c>
@@ -31923,7 +31923,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="900" spans="2:8">
+    <row r="900" hidden="1" spans="2:8">
       <c r="B900" s="5" t="s">
         <v>2050</v>
       </c>
@@ -31937,7 +31937,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="901" spans="2:8">
+    <row r="901" hidden="1" spans="2:8">
       <c r="B901" s="5" t="s">
         <v>2053</v>
       </c>
@@ -32003,7 +32003,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="907" hidden="1" spans="2:8">
+    <row r="907" spans="2:8">
       <c r="B907" s="5" t="s">
         <v>2069</v>
       </c>
@@ -32059,7 +32059,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="913" hidden="1" spans="2:8">
+    <row r="913" spans="2:8">
       <c r="B913" s="5" t="s">
         <v>2082</v>
       </c>
@@ -32095,7 +32095,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="916" spans="2:8">
+    <row r="916" hidden="1" spans="2:8">
       <c r="B916" s="5" t="s">
         <v>2091</v>
       </c>
@@ -32109,7 +32109,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="917" spans="2:8">
+    <row r="917" hidden="1" spans="2:8">
       <c r="B917" s="5" t="s">
         <v>2094</v>
       </c>
@@ -32145,7 +32145,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="920" hidden="1" spans="2:8">
+    <row r="920" spans="2:8">
       <c r="B920" s="5" t="s">
         <v>2103</v>
       </c>
@@ -32170,7 +32170,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="922" spans="2:8">
+    <row r="922" hidden="1" spans="2:8">
       <c r="B922" s="5" t="s">
         <v>2109</v>
       </c>
@@ -32214,7 +32214,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="926" hidden="1" spans="2:8">
+    <row r="926" spans="2:8">
       <c r="B926" s="5" t="s">
         <v>2120</v>
       </c>
@@ -32239,7 +32239,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="928" spans="2:8">
+    <row r="928" hidden="1" spans="2:8">
       <c r="B928" s="5" t="s">
         <v>2126</v>
       </c>
@@ -32253,7 +32253,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="929" hidden="1" spans="2:8">
+    <row r="929" spans="2:8">
       <c r="B929" s="5" t="s">
         <v>2129</v>
       </c>
@@ -32286,7 +32286,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="932" hidden="1" spans="2:8">
+    <row r="932" spans="2:8">
       <c r="B932" s="5" t="s">
         <v>2137</v>
       </c>
@@ -32322,7 +32322,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="935" hidden="1" spans="2:8">
+    <row r="935" spans="2:8">
       <c r="B935" s="5" t="s">
         <v>2146</v>
       </c>
@@ -32388,7 +32388,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="941" hidden="1" spans="2:8">
+    <row r="941" spans="2:8">
       <c r="B941" s="5" t="s">
         <v>2163</v>
       </c>
@@ -32435,7 +32435,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="945" spans="2:8">
+    <row r="945" hidden="1" spans="2:8">
       <c r="B945" s="5" t="s">
         <v>2175</v>
       </c>
@@ -32449,7 +32449,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="946" hidden="1" spans="2:8">
+    <row r="946" spans="2:8">
       <c r="B946" s="5" t="s">
         <v>2178</v>
       </c>
@@ -32474,7 +32474,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="948" spans="2:8">
+    <row r="948" hidden="1" spans="2:8">
       <c r="B948" s="5" t="s">
         <v>2184</v>
       </c>
@@ -32492,7 +32492,7 @@
       </c>
     </row>
     <row r="949" hidden="1"/>
-    <row r="950" hidden="1" spans="1:4">
+    <row r="950" spans="1:4">
       <c r="A950" s="4" t="s">
         <v>495</v>
       </c>
@@ -32504,7 +32504,7 @@
       </c>
       <c r="D950" s="18"/>
     </row>
-    <row r="951" hidden="1" spans="2:3">
+    <row r="951" spans="2:3">
       <c r="B951" s="5" t="s">
         <v>2188</v>
       </c>
@@ -32517,7 +32517,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="953" hidden="1" spans="2:3">
+    <row r="953" spans="2:3">
       <c r="B953" s="5" t="s">
         <v>2190</v>
       </c>
@@ -32530,7 +32530,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="955" hidden="1" spans="2:3">
+    <row r="955" spans="2:3">
       <c r="B955" s="5" t="s">
         <v>2192</v>
       </c>
@@ -32538,7 +32538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="956" hidden="1" spans="2:3">
+    <row r="956" spans="2:3">
       <c r="B956" s="5" t="s">
         <v>2193</v>
       </c>
@@ -32546,7 +32546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="957" hidden="1" spans="2:3">
+    <row r="957" spans="2:3">
       <c r="B957" s="5" t="s">
         <v>2194</v>
       </c>
@@ -32572,7 +32572,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="961" spans="2:6">
+    <row r="961" hidden="1" spans="2:6">
       <c r="B961" s="5" t="s">
         <v>2199</v>
       </c>
@@ -32591,7 +32591,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="963" hidden="1" spans="2:6">
+    <row r="963" spans="2:6">
       <c r="B963" s="5" t="s">
         <v>2203</v>
       </c>
@@ -32602,7 +32602,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="964" hidden="1" spans="2:3">
+    <row r="964" spans="2:3">
       <c r="B964" s="5" t="s">
         <v>2205</v>
       </c>
@@ -32610,7 +32610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="965" spans="2:3">
+    <row r="965" hidden="1" spans="2:3">
       <c r="B965" s="5" t="s">
         <v>2206</v>
       </c>
@@ -32646,7 +32646,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="971" hidden="1" spans="2:6">
+    <row r="971" spans="2:6">
       <c r="B971" s="5" t="s">
         <v>2213</v>
       </c>
@@ -32662,7 +32662,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="973" hidden="1" spans="2:6">
+    <row r="973" spans="2:6">
       <c r="B973" s="5" t="s">
         <v>2216</v>
       </c>
@@ -32673,7 +32673,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="974" hidden="1" spans="2:6">
+    <row r="974" spans="2:6">
       <c r="B974" s="5" t="s">
         <v>2218</v>
       </c>
@@ -32696,7 +32696,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="977" spans="2:6">
+    <row r="977" hidden="1" spans="2:6">
       <c r="B977" s="5" t="s">
         <v>2222</v>
       </c>
@@ -32707,7 +32707,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="978" hidden="1" spans="2:6">
+    <row r="978" spans="2:6">
       <c r="B978" s="5" t="s">
         <v>2224</v>
       </c>
@@ -32718,7 +32718,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="979" hidden="1" spans="2:6">
+    <row r="979" spans="2:6">
       <c r="B979" s="5" t="s">
         <v>2226</v>
       </c>
@@ -32737,7 +32737,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="981" spans="2:6">
+    <row r="981" hidden="1" spans="2:6">
       <c r="B981" s="5" t="s">
         <v>2230</v>
       </c>
@@ -32748,7 +32748,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="982" spans="2:6">
+    <row r="982" hidden="1" spans="2:6">
       <c r="B982" s="5" t="s">
         <v>2232</v>
       </c>
@@ -32759,7 +32759,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="983" hidden="1" spans="2:6">
+    <row r="983" spans="2:6">
       <c r="B983" s="5" t="s">
         <v>2234</v>
       </c>
@@ -32778,7 +32778,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="985" hidden="1" spans="2:6">
+    <row r="985" spans="2:6">
       <c r="B985" s="5" t="s">
         <v>2238</v>
       </c>
@@ -32813,7 +32813,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="989" hidden="1" spans="2:6">
+    <row r="989" spans="2:6">
       <c r="B989" s="5" t="s">
         <v>2245</v>
       </c>
@@ -32824,7 +32824,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="990" spans="2:6">
+    <row r="990" hidden="1" spans="2:6">
       <c r="B990" s="5" t="s">
         <v>2247</v>
       </c>
@@ -32835,7 +32835,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="991" hidden="1" spans="2:6">
+    <row r="991" spans="2:6">
       <c r="B991" s="5" t="s">
         <v>2249</v>
       </c>
@@ -32846,7 +32846,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="992" spans="2:6">
+    <row r="992" hidden="1" spans="2:6">
       <c r="B992" s="5" t="s">
         <v>2251</v>
       </c>
@@ -32857,7 +32857,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="993" spans="2:6">
+    <row r="993" hidden="1" spans="2:6">
       <c r="B993" s="5" t="s">
         <v>2253</v>
       </c>
@@ -32868,7 +32868,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="994" spans="2:6">
+    <row r="994" hidden="1" spans="2:6">
       <c r="B994" s="5" t="s">
         <v>2255</v>
       </c>
@@ -32879,7 +32879,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="995" spans="2:6">
+    <row r="995" hidden="1" spans="2:6">
       <c r="B995" s="5" t="s">
         <v>2257</v>
       </c>
@@ -33040,7 +33040,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="1022" hidden="1" spans="2:6">
+    <row r="1022" spans="2:6">
       <c r="B1022" s="5" t="s">
         <v>2290</v>
       </c>
@@ -33063,7 +33063,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="1025" hidden="1" spans="2:6">
+    <row r="1025" spans="2:6">
       <c r="B1025" s="5" t="s">
         <v>2294</v>
       </c>
@@ -33112,7 +33112,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="1033" hidden="1" spans="2:6">
+    <row r="1033" spans="2:6">
       <c r="B1033" s="5" t="s">
         <v>2304</v>
       </c>
@@ -33123,7 +33123,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="1034" hidden="1" spans="2:6">
+    <row r="1034" spans="2:6">
       <c r="B1034" s="5" t="s">
         <v>2306</v>
       </c>
@@ -33152,7 +33152,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="1038" hidden="1" spans="2:6">
+    <row r="1038" spans="2:6">
       <c r="B1038" s="5" t="s">
         <v>2312</v>
       </c>
@@ -33176,7 +33176,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="1041" spans="2:6">
+    <row r="1041" hidden="1" spans="2:6">
       <c r="B1041" s="5" t="s">
         <v>2317</v>
       </c>
@@ -33229,7 +33229,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="1048" hidden="1" spans="2:6">
+    <row r="1048" spans="2:6">
       <c r="B1048" s="5" t="s">
         <v>2328</v>
       </c>
@@ -33245,7 +33245,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="1050" spans="2:6">
+    <row r="1050" hidden="1" spans="2:6">
       <c r="B1050" s="5" t="s">
         <v>2331</v>
       </c>
@@ -33256,7 +33256,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="1051" spans="2:6">
+    <row r="1051" hidden="1" spans="2:6">
       <c r="B1051" s="5" t="s">
         <v>2333</v>
       </c>
@@ -33272,7 +33272,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="1053" hidden="1" spans="2:6">
+    <row r="1053" spans="2:6">
       <c r="B1053" s="5" t="s">
         <v>2336</v>
       </c>
@@ -33288,7 +33288,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="1055" hidden="1" spans="2:6">
+    <row r="1055" spans="2:6">
       <c r="B1055" s="5" t="s">
         <v>2339</v>
       </c>
@@ -33324,7 +33324,7 @@
       </c>
     </row>
     <row r="1059" hidden="1"/>
-    <row r="1060" spans="1:6">
+    <row r="1060" hidden="1" spans="1:6">
       <c r="A1060" s="4" t="s">
         <v>679</v>
       </c>
@@ -33338,7 +33338,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="1061" hidden="1" spans="2:6">
+    <row r="1061" spans="2:6">
       <c r="B1061" s="5" t="s">
         <v>2349</v>
       </c>
@@ -33349,7 +33349,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="1062" hidden="1" spans="2:6">
+    <row r="1062" spans="2:6">
       <c r="B1062" s="5" t="s">
         <v>2351</v>
       </c>
@@ -33376,7 +33376,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1065" hidden="1" spans="2:6">
+    <row r="1065" spans="2:6">
       <c r="B1065" s="5" t="s">
         <v>2357</v>
       </c>
@@ -33408,7 +33408,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="1069" hidden="1" spans="2:6">
+    <row r="1069" spans="2:6">
       <c r="B1069" s="5" t="s">
         <v>2364</v>
       </c>
@@ -33419,7 +33419,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="1070" spans="2:6">
+    <row r="1070" hidden="1" spans="2:6">
       <c r="B1070" s="5" t="s">
         <v>2366</v>
       </c>
@@ -33430,7 +33430,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="1071" spans="2:6">
+    <row r="1071" hidden="1" spans="2:6">
       <c r="B1071" s="5" t="s">
         <v>2367</v>
       </c>
@@ -33441,7 +33441,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="1072" spans="2:6">
+    <row r="1072" hidden="1" spans="2:6">
       <c r="B1072" s="5" t="s">
         <v>2369</v>
       </c>
@@ -33460,7 +33460,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="1074" spans="2:6">
+    <row r="1074" hidden="1" spans="2:6">
       <c r="B1074" s="5" t="s">
         <v>2372</v>
       </c>
@@ -33487,7 +33487,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="1077" spans="2:6">
+    <row r="1077" hidden="1" spans="2:6">
       <c r="B1077" s="5" t="s">
         <v>2378</v>
       </c>
@@ -33501,7 +33501,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="1078" hidden="1" spans="2:6">
+    <row r="1078" spans="2:6">
       <c r="B1078" s="5" t="s">
         <v>2381</v>
       </c>
@@ -33517,7 +33517,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="1080" hidden="1" spans="2:6">
+    <row r="1080" spans="2:6">
       <c r="B1080" s="5" t="s">
         <v>2384</v>
       </c>
@@ -33528,7 +33528,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="1081" spans="2:6">
+    <row r="1081" hidden="1" spans="2:6">
       <c r="B1081" s="5" t="s">
         <v>2386</v>
       </c>
@@ -33539,7 +33539,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="1082" hidden="1" spans="2:6">
+    <row r="1082" spans="2:6">
       <c r="B1082" s="5" t="s">
         <v>2388</v>
       </c>
@@ -33550,7 +33550,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="1083" spans="2:6">
+    <row r="1083" hidden="1" spans="2:6">
       <c r="B1083" s="5" t="s">
         <v>2390</v>
       </c>
@@ -33569,7 +33569,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="1085" spans="2:6">
+    <row r="1085" hidden="1" spans="2:6">
       <c r="B1085" s="5" t="s">
         <v>2394</v>
       </c>
@@ -33587,7 +33587,7 @@
       </c>
     </row>
     <row r="1086" hidden="1"/>
-    <row r="1087" spans="1:6">
+    <row r="1087" hidden="1" spans="1:6">
       <c r="A1087" s="4" t="s">
         <v>742</v>
       </c>
@@ -33619,7 +33619,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="1091" hidden="1" spans="2:6">
+    <row r="1091" spans="2:6">
       <c r="B1091" s="5" t="s">
         <v>2403</v>
       </c>
@@ -33630,7 +33630,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="1092" spans="2:6">
+    <row r="1092" hidden="1" spans="2:6">
       <c r="B1092" s="5" t="s">
         <v>2405</v>
       </c>
@@ -33657,7 +33657,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="1095" spans="2:6">
+    <row r="1095" hidden="1" spans="2:6">
       <c r="B1095" s="5" t="s">
         <v>2411</v>
       </c>
@@ -33671,7 +33671,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="1096" hidden="1" spans="2:6">
+    <row r="1096" spans="2:6">
       <c r="B1096" s="5" t="s">
         <v>2414</v>
       </c>
@@ -33690,7 +33690,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="1098" spans="2:6">
+    <row r="1098" hidden="1" spans="2:6">
       <c r="B1098" s="5" t="s">
         <v>2418</v>
       </c>
@@ -33701,7 +33701,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1099" hidden="1" spans="2:6">
+    <row r="1099" spans="2:6">
       <c r="B1099" s="5" t="s">
         <v>2420</v>
       </c>
@@ -33736,7 +33736,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="1103" hidden="1" spans="2:6">
+    <row r="1103" spans="2:6">
       <c r="B1103" s="5" t="s">
         <v>2428</v>
       </c>
@@ -33747,7 +33747,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="1104" spans="2:6">
+    <row r="1104" hidden="1" spans="2:6">
       <c r="B1104" s="5" t="s">
         <v>2430</v>
       </c>
@@ -33758,7 +33758,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="1105" hidden="1" spans="2:6">
+    <row r="1105" spans="2:6">
       <c r="B1105" s="5" t="s">
         <v>2432</v>
       </c>
@@ -33777,7 +33777,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="1107" hidden="1" spans="2:6">
+    <row r="1107" spans="2:6">
       <c r="B1107" s="5" t="s">
         <v>2436</v>
       </c>
@@ -33832,7 +33832,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="1115" spans="2:6">
+    <row r="1115" hidden="1" spans="2:6">
       <c r="B1115" s="5" t="s">
         <v>2448</v>
       </c>
@@ -33846,7 +33846,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="1116" spans="2:6">
+    <row r="1116" hidden="1" spans="2:6">
       <c r="B1116" s="5" t="s">
         <v>2451</v>
       </c>
@@ -33857,7 +33857,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="1117" hidden="1" spans="2:6">
+    <row r="1117" spans="2:6">
       <c r="B1117" s="5" t="s">
         <v>2453</v>
       </c>
@@ -33871,7 +33871,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="1118" hidden="1" spans="2:6">
+    <row r="1118" spans="2:6">
       <c r="B1118" s="5" t="s">
         <v>2456</v>
       </c>
@@ -33882,7 +33882,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="1119" hidden="1" spans="2:6">
+    <row r="1119" spans="2:6">
       <c r="B1119" s="5" t="s">
         <v>2458</v>
       </c>
@@ -33894,7 +33894,7 @@
       </c>
     </row>
     <row r="1120" hidden="1"/>
-    <row r="1121" hidden="1" spans="1:6">
+    <row r="1121" spans="1:6">
       <c r="A1121" s="4" t="s">
         <v>789</v>
       </c>
@@ -33939,7 +33939,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="1127" spans="2:6">
+    <row r="1127" hidden="1" spans="2:6">
       <c r="B1127" s="5" t="s">
         <v>2466</v>
       </c>
@@ -33973,7 +33973,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="1132" spans="2:6">
+    <row r="1132" hidden="1" spans="2:6">
       <c r="B1132" s="5" t="s">
         <v>2473</v>
       </c>
@@ -33992,7 +33992,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1134" spans="2:6">
+    <row r="1134" hidden="1" spans="2:6">
       <c r="B1134" s="5" t="s">
         <v>2477</v>
       </c>
@@ -34019,7 +34019,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="1137" spans="2:6">
+    <row r="1137" hidden="1" spans="2:6">
       <c r="B1137" s="5" t="s">
         <v>2483</v>
       </c>
@@ -34033,7 +34033,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="1138" hidden="1" spans="2:6">
+    <row r="1138" spans="2:6">
       <c r="B1138" s="5" t="s">
         <v>2486</v>
       </c>
@@ -34069,7 +34069,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="1144" hidden="1" spans="2:6">
+    <row r="1144" spans="2:6">
       <c r="B1144" s="5" t="s">
         <v>2493</v>
       </c>
@@ -34080,7 +34080,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="1145" hidden="1" spans="2:6">
+    <row r="1145" spans="2:6">
       <c r="B1145" s="5" t="s">
         <v>2494</v>
       </c>
@@ -34091,7 +34091,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="1146" hidden="1" spans="2:6">
+    <row r="1146" spans="2:6">
       <c r="B1146" s="5" t="s">
         <v>2496</v>
       </c>
@@ -34107,7 +34107,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="1148" spans="2:6">
+    <row r="1148" hidden="1" spans="2:6">
       <c r="B1148" s="5" t="s">
         <v>2499</v>
       </c>
@@ -34144,7 +34144,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="1153" hidden="1" spans="2:6">
+    <row r="1153" spans="2:6">
       <c r="B1153" s="5" t="s">
         <v>2507</v>
       </c>
@@ -34155,7 +34155,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="1154" hidden="1" spans="2:6">
+    <row r="1154" spans="2:6">
       <c r="B1154" s="5" t="s">
         <v>2509</v>
       </c>
@@ -34169,7 +34169,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="1155" hidden="1" spans="2:6">
+    <row r="1155" spans="2:6">
       <c r="B1155" s="5" t="s">
         <v>2512</v>
       </c>
@@ -34207,7 +34207,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1161" hidden="1" spans="2:6">
+    <row r="1161" spans="2:6">
       <c r="B1161" s="5" t="s">
         <v>2518</v>
       </c>
@@ -34218,7 +34218,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="1162" hidden="1" spans="2:6">
+    <row r="1162" spans="2:6">
       <c r="B1162" s="5" t="s">
         <v>2520</v>
       </c>
@@ -34270,7 +34270,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="1170" spans="2:6">
+    <row r="1170" hidden="1" spans="2:6">
       <c r="B1170" s="5" t="s">
         <v>2530</v>
       </c>
@@ -34297,7 +34297,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="1173" hidden="1" spans="2:6">
+    <row r="1173" spans="2:6">
       <c r="B1173" s="5" t="s">
         <v>2536</v>
       </c>
@@ -34308,7 +34308,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1174" hidden="1" spans="2:6">
+    <row r="1174" spans="2:6">
       <c r="B1174" s="5" t="s">
         <v>2538</v>
       </c>
@@ -34319,7 +34319,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="1175" spans="2:6">
+    <row r="1175" hidden="1" spans="2:6">
       <c r="B1175" s="5" t="s">
         <v>2540</v>
       </c>
@@ -34359,7 +34359,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="1180" spans="2:6">
+    <row r="1180" hidden="1" spans="2:6">
       <c r="B1180" s="5" t="s">
         <v>2549</v>
       </c>
@@ -34378,7 +34378,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="1182" spans="2:6">
+    <row r="1182" hidden="1" spans="2:6">
       <c r="B1182" s="5" t="s">
         <v>2553</v>
       </c>
@@ -34456,7 +34456,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="1193" hidden="1" spans="2:6">
+    <row r="1193" spans="2:6">
       <c r="B1193" s="5" t="s">
         <v>2568</v>
       </c>
@@ -34475,7 +34475,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="1195" hidden="1" spans="2:6">
+    <row r="1195" spans="2:6">
       <c r="B1195" s="5" t="s">
         <v>2572</v>
       </c>
@@ -34509,7 +34509,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="1200" hidden="1" spans="2:6">
+    <row r="1200" spans="2:6">
       <c r="B1200" s="5" t="s">
         <v>2579</v>
       </c>
@@ -34520,7 +34520,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="1201" hidden="1" spans="2:6">
+    <row r="1201" spans="2:6">
       <c r="B1201" s="5" t="s">
         <v>2581</v>
       </c>
@@ -34541,7 +34541,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="1204" hidden="1" spans="2:6">
+    <row r="1204" spans="2:6">
       <c r="B1204" s="5" t="s">
         <v>2584</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="1213" hidden="1" spans="2:6">
+    <row r="1213" spans="2:6">
       <c r="B1213" s="5" t="s">
         <v>2595</v>
       </c>
@@ -34614,7 +34614,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="1215" spans="2:6">
+    <row r="1215" hidden="1" spans="2:6">
       <c r="B1215" s="5" t="s">
         <v>2599</v>
       </c>
@@ -34628,7 +34628,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="1216" hidden="1" spans="2:6">
+    <row r="1216" spans="2:6">
       <c r="B1216" s="5" t="s">
         <v>2601</v>
       </c>
@@ -34642,7 +34642,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="1217" hidden="1" spans="2:6">
+    <row r="1217" spans="2:6">
       <c r="B1217" s="5" t="s">
         <v>2603</v>
       </c>
@@ -34658,7 +34658,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="1219" hidden="1" spans="2:6">
+    <row r="1219" spans="2:6">
       <c r="B1219" s="5" t="s">
         <v>2606</v>
       </c>
@@ -34669,7 +34669,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="1220" spans="2:6">
+    <row r="1220" hidden="1" spans="2:6">
       <c r="B1220" s="5" t="s">
         <v>2608</v>
       </c>
@@ -34685,7 +34685,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="1222" hidden="1" spans="2:6">
+    <row r="1222" spans="2:6">
       <c r="B1222" s="5" t="s">
         <v>1455</v>
       </c>
@@ -34696,7 +34696,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="1223" spans="2:6">
+    <row r="1223" hidden="1" spans="2:6">
       <c r="B1223" s="5" t="s">
         <v>2612</v>
       </c>
@@ -34718,7 +34718,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="1225" hidden="1" spans="2:6">
+    <row r="1225" spans="2:6">
       <c r="B1225" s="5" t="s">
         <v>2616</v>
       </c>
@@ -34729,7 +34729,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="1226" hidden="1" spans="2:6">
+    <row r="1226" spans="2:6">
       <c r="B1226" s="5" t="s">
         <v>2618</v>
       </c>
@@ -34740,7 +34740,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="1227" hidden="1" spans="2:6">
+    <row r="1227" spans="2:6">
       <c r="B1227" s="5" t="s">
         <v>2620</v>
       </c>
@@ -34751,7 +34751,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="1228" spans="2:6">
+    <row r="1228" hidden="1" spans="2:6">
       <c r="B1228" s="5" t="s">
         <v>2621</v>
       </c>
@@ -34767,7 +34767,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="1230" hidden="1" spans="2:6">
+    <row r="1230" spans="2:6">
       <c r="B1230" s="5" t="s">
         <v>2624</v>
       </c>
@@ -34783,7 +34783,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="1232" hidden="1" spans="2:6">
+    <row r="1232" spans="2:6">
       <c r="B1232" s="5" t="s">
         <v>2627</v>
       </c>
@@ -34804,7 +34804,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="1235" spans="2:6">
+    <row r="1235" hidden="1" spans="2:6">
       <c r="B1235" s="5" t="s">
         <v>2631</v>
       </c>
@@ -34823,7 +34823,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="1237" hidden="1" spans="2:6">
+    <row r="1237" spans="2:6">
       <c r="B1237" s="5" t="s">
         <v>2634</v>
       </c>
@@ -34834,7 +34834,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="1238" hidden="1" spans="2:6">
+    <row r="1238" spans="2:6">
       <c r="B1238" s="5" t="s">
         <v>2636</v>
       </c>
@@ -34845,7 +34845,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="1239" spans="2:6">
+    <row r="1239" hidden="1" spans="2:6">
       <c r="B1239" s="5" t="s">
         <v>2638</v>
       </c>
@@ -34870,7 +34870,7 @@
       </c>
     </row>
     <row r="1242" hidden="1"/>
-    <row r="1243" hidden="1" spans="1:6">
+    <row r="1243" spans="1:6">
       <c r="A1243" s="4" t="s">
         <v>970</v>
       </c>
@@ -34884,7 +34884,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="1244" hidden="1" spans="2:6">
+    <row r="1244" spans="2:6">
       <c r="B1244" s="5" t="s">
         <v>2644</v>
       </c>
@@ -34895,7 +34895,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="1245" spans="2:6">
+    <row r="1245" hidden="1" spans="2:6">
       <c r="B1245" s="5" t="s">
         <v>2646</v>
       </c>
@@ -34909,7 +34909,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="1246" spans="2:6">
+    <row r="1246" hidden="1" spans="2:6">
       <c r="B1246" s="5" t="s">
         <v>2649</v>
       </c>
@@ -34920,7 +34920,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="1247" spans="2:6">
+    <row r="1247" hidden="1" spans="2:6">
       <c r="B1247" s="5" t="s">
         <v>2651</v>
       </c>
@@ -34946,7 +34946,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="1251" hidden="1" spans="2:6">
+    <row r="1251" spans="2:6">
       <c r="B1251" s="5" t="s">
         <v>2656</v>
       </c>
@@ -34967,7 +34967,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="1254" hidden="1" spans="2:6">
+    <row r="1254" spans="2:6">
       <c r="B1254" s="5" t="s">
         <v>2660</v>
       </c>
@@ -34978,7 +34978,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="1255" hidden="1" spans="2:6">
+    <row r="1255" spans="2:6">
       <c r="B1255" s="5" t="s">
         <v>2662</v>
       </c>
@@ -34992,7 +34992,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="1256" hidden="1" spans="2:6">
+    <row r="1256" spans="2:6">
       <c r="B1256" s="5" t="s">
         <v>2665</v>
       </c>
@@ -35003,7 +35003,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="1257" spans="2:6">
+    <row r="1257" hidden="1" spans="2:6">
       <c r="B1257" s="5" t="s">
         <v>2667</v>
       </c>
@@ -35017,7 +35017,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="1258" hidden="1" spans="2:6">
+    <row r="1258" spans="2:6">
       <c r="B1258" s="5" t="s">
         <v>2670</v>
       </c>
@@ -35052,7 +35052,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="1262" hidden="1" spans="2:6">
+    <row r="1262" spans="2:6">
       <c r="B1262" s="5" t="s">
         <v>2678</v>
       </c>
@@ -35071,7 +35071,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1264" hidden="1" spans="2:6">
+    <row r="1264" spans="2:6">
       <c r="B1264" s="5" t="s">
         <v>2682</v>
       </c>
@@ -35082,7 +35082,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="1265" spans="2:6">
+    <row r="1265" hidden="1" spans="2:6">
       <c r="B1265" s="5" t="s">
         <v>2684</v>
       </c>
@@ -35093,7 +35093,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1266" spans="2:6">
+    <row r="1266" hidden="1" spans="2:6">
       <c r="B1266" s="5" t="s">
         <v>2686</v>
       </c>
@@ -35104,7 +35104,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="1267" spans="2:6">
+    <row r="1267" hidden="1" spans="2:6">
       <c r="B1267" s="5" t="s">
         <v>2688</v>
       </c>
@@ -35115,7 +35115,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="1268" hidden="1" spans="2:6">
+    <row r="1268" spans="2:6">
       <c r="B1268" s="5" t="s">
         <v>2690</v>
       </c>
@@ -35134,7 +35134,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="1270" spans="2:6">
+    <row r="1270" hidden="1" spans="2:6">
       <c r="B1270" s="5" t="s">
         <v>2694</v>
       </c>
@@ -35148,7 +35148,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="1271" spans="2:6">
+    <row r="1271" hidden="1" spans="2:6">
       <c r="B1271" s="5" t="s">
         <v>2695</v>
       </c>
@@ -35162,7 +35162,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="1272" spans="2:6">
+    <row r="1272" hidden="1" spans="2:6">
       <c r="B1272" s="5" t="s">
         <v>2698</v>
       </c>
@@ -35176,7 +35176,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="1273" spans="2:6">
+    <row r="1273" hidden="1" spans="2:6">
       <c r="B1273" s="5" t="s">
         <v>2699</v>
       </c>
@@ -35190,7 +35190,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="1274" spans="2:6">
+    <row r="1274" hidden="1" spans="2:6">
       <c r="B1274" s="5" t="s">
         <v>2702</v>
       </c>
@@ -35201,7 +35201,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="1275" spans="2:6">
+    <row r="1275" hidden="1" spans="2:6">
       <c r="B1275" s="5" t="s">
         <v>2704</v>
       </c>
@@ -35239,7 +35239,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="1279" spans="2:6">
+    <row r="1279" hidden="1" spans="2:6">
       <c r="B1279" s="5" t="s">
         <v>2713</v>
       </c>
@@ -35250,7 +35250,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="1280" hidden="1" spans="2:6">
+    <row r="1280" spans="2:6">
       <c r="B1280" s="5" t="s">
         <v>2715</v>
       </c>
@@ -35264,7 +35264,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="1281" hidden="1" spans="2:6">
+    <row r="1281" spans="2:6">
       <c r="B1281" s="5" t="s">
         <v>2718</v>
       </c>
@@ -35283,7 +35283,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="1283" hidden="1" spans="2:6">
+    <row r="1283" spans="2:6">
       <c r="B1283" s="5" t="s">
         <v>2722</v>
       </c>
@@ -35294,7 +35294,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="1284" spans="2:6">
+    <row r="1284" hidden="1" spans="2:6">
       <c r="B1284" s="5" t="s">
         <v>2724</v>
       </c>
@@ -35308,7 +35308,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1285" spans="2:6">
+    <row r="1285" hidden="1" spans="2:6">
       <c r="B1285" s="5" t="s">
         <v>2727</v>
       </c>
@@ -35322,7 +35322,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1286" spans="2:6">
+    <row r="1286" hidden="1" spans="2:6">
       <c r="B1286" s="5" t="s">
         <v>2730</v>
       </c>
@@ -35333,7 +35333,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="1287" spans="2:6">
+    <row r="1287" hidden="1" spans="2:6">
       <c r="B1287" s="5" t="s">
         <v>2732</v>
       </c>
@@ -35344,7 +35344,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="1288" hidden="1" spans="2:6">
+    <row r="1288" spans="2:6">
       <c r="B1288" s="5" t="s">
         <v>2734</v>
       </c>
@@ -35367,7 +35367,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="1291" spans="2:6">
+    <row r="1291" hidden="1" spans="2:6">
       <c r="B1291" s="5" t="s">
         <v>2737</v>
       </c>
@@ -35381,7 +35381,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="1292" hidden="1" spans="2:6">
+    <row r="1292" spans="2:6">
       <c r="B1292" s="5" t="s">
         <v>2740</v>
       </c>
@@ -35392,7 +35392,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="1293" spans="2:6">
+    <row r="1293" hidden="1" spans="2:6">
       <c r="B1293" s="5" t="s">
         <v>2742</v>
       </c>
@@ -35411,7 +35411,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="1295" spans="2:6">
+    <row r="1295" hidden="1" spans="2:6">
       <c r="B1295" s="5" t="s">
         <v>2746</v>
       </c>
@@ -35422,7 +35422,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="1296" spans="2:6">
+    <row r="1296" hidden="1" spans="2:6">
       <c r="B1296" s="5" t="s">
         <v>2747</v>
       </c>
@@ -35433,7 +35433,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="1297" spans="2:6">
+    <row r="1297" hidden="1" spans="2:6">
       <c r="B1297" s="5" t="s">
         <v>2749</v>
       </c>
@@ -35444,7 +35444,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="1298" spans="2:6">
+    <row r="1298" hidden="1" spans="2:6">
       <c r="B1298" s="5" t="s">
         <v>2751</v>
       </c>
@@ -35463,7 +35463,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="1300" spans="2:6">
+    <row r="1300" hidden="1" spans="2:6">
       <c r="B1300" s="5" t="s">
         <v>2755</v>
       </c>
@@ -35482,7 +35482,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="1302" hidden="1" spans="2:6">
+    <row r="1302" spans="2:6">
       <c r="B1302" s="5" t="s">
         <v>2759</v>
       </c>
@@ -35493,7 +35493,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="1303" spans="2:6">
+    <row r="1303" hidden="1" spans="2:6">
       <c r="B1303" s="5" t="s">
         <v>2761</v>
       </c>
@@ -35512,7 +35512,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="1305" hidden="1" spans="2:6">
+    <row r="1305" spans="2:6">
       <c r="B1305" s="5" t="s">
         <v>2765</v>
       </c>
@@ -35523,7 +35523,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="1306" hidden="1" spans="2:6">
+    <row r="1306" spans="2:6">
       <c r="B1306" s="5" t="s">
         <v>2767</v>
       </c>
@@ -35563,7 +35563,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="1311" spans="2:6">
+    <row r="1311" hidden="1" spans="2:6">
       <c r="B1311" s="5" t="s">
         <v>2776</v>
       </c>
@@ -35574,7 +35574,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="1312" spans="2:6">
+    <row r="1312" hidden="1" spans="2:6">
       <c r="B1312" s="5" t="s">
         <v>2778</v>
       </c>
@@ -35593,7 +35593,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="1314" spans="2:6">
+    <row r="1314" hidden="1" spans="2:6">
       <c r="B1314" s="5" t="s">
         <v>2782</v>
       </c>
@@ -35604,7 +35604,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="1315" hidden="1" spans="2:6">
+    <row r="1315" spans="2:6">
       <c r="B1315" s="5" t="s">
         <v>2784</v>
       </c>
@@ -35615,7 +35615,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="1316" hidden="1" spans="2:6">
+    <row r="1316" spans="2:6">
       <c r="B1316" s="5" t="s">
         <v>2786</v>
       </c>
@@ -35626,7 +35626,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="1317" spans="2:6">
+    <row r="1317" hidden="1" spans="2:6">
       <c r="B1317" s="5" t="s">
         <v>2788</v>
       </c>
@@ -35637,7 +35637,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="1318" hidden="1" spans="2:6">
+    <row r="1318" spans="2:6">
       <c r="B1318" s="5" t="s">
         <v>2790</v>
       </c>
@@ -35648,7 +35648,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="1319" spans="2:6">
+    <row r="1319" hidden="1" spans="2:6">
       <c r="B1319" s="5" t="s">
         <v>2792</v>
       </c>
@@ -35667,7 +35667,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="1321" spans="2:6">
+    <row r="1321" hidden="1" spans="2:6">
       <c r="B1321" s="5" t="s">
         <v>2796</v>
       </c>
@@ -35689,7 +35689,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1323" hidden="1" spans="2:6">
+    <row r="1323" spans="2:6">
       <c r="B1323" s="5" t="s">
         <v>2801</v>
       </c>
@@ -35708,7 +35708,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="1325" spans="2:6">
+    <row r="1325" hidden="1" spans="2:6">
       <c r="B1325" s="5" t="s">
         <v>2804</v>
       </c>
@@ -35724,7 +35724,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="1327" hidden="1" spans="2:6">
+    <row r="1327" spans="2:6">
       <c r="B1327" s="5" t="s">
         <v>2807</v>
       </c>
@@ -35735,7 +35735,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="1328" spans="2:6">
+    <row r="1328" hidden="1" spans="2:6">
       <c r="B1328" s="5" t="s">
         <v>2809</v>
       </c>
@@ -35758,7 +35758,7 @@
       </c>
     </row>
     <row r="1330" hidden="1"/>
-    <row r="1331" hidden="1" spans="1:6">
+    <row r="1331" spans="1:6">
       <c r="A1331" s="4" t="s">
         <v>1046</v>
       </c>
@@ -35773,7 +35773,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="1332" spans="2:6">
+    <row r="1332" hidden="1" spans="2:6">
       <c r="B1332" s="5" t="s">
         <v>2814</v>
       </c>
@@ -35787,7 +35787,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="1333" spans="2:6">
+    <row r="1333" hidden="1" spans="2:6">
       <c r="B1333" s="5" t="s">
         <v>2817</v>
       </c>
@@ -35801,7 +35801,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="1334" spans="2:6">
+    <row r="1334" hidden="1" spans="2:6">
       <c r="B1334" s="5" t="s">
         <v>2820</v>
       </c>
@@ -35817,7 +35817,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="1336" spans="2:6">
+    <row r="1336" hidden="1" spans="2:6">
       <c r="B1336" s="5" t="s">
         <v>2823</v>
       </c>
@@ -35833,7 +35833,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="1338" hidden="1" spans="2:6">
+    <row r="1338" spans="2:6">
       <c r="B1338" s="5" t="s">
         <v>2826</v>
       </c>
@@ -35844,7 +35844,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="1339" hidden="1" spans="2:6">
+    <row r="1339" spans="2:6">
       <c r="B1339" s="5" t="s">
         <v>2828</v>
       </c>
@@ -35855,7 +35855,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="1340" spans="2:6">
+    <row r="1340" hidden="1" spans="2:6">
       <c r="B1340" s="5" t="s">
         <v>2830</v>
       </c>
@@ -35866,7 +35866,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="1341" spans="2:6">
+    <row r="1341" hidden="1" spans="2:6">
       <c r="B1341" s="5" t="s">
         <v>2832</v>
       </c>
@@ -35877,7 +35877,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="1342" spans="2:6">
+    <row r="1342" hidden="1" spans="2:6">
       <c r="B1342" s="5" t="s">
         <v>2833</v>
       </c>
@@ -35898,7 +35898,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="1345" spans="2:6">
+    <row r="1345" hidden="1" spans="2:6">
       <c r="B1345" s="5" t="s">
         <v>2837</v>
       </c>
@@ -35909,7 +35909,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="1346" hidden="1" spans="2:6">
+    <row r="1346" spans="2:6">
       <c r="B1346" s="5" t="s">
         <v>2839</v>
       </c>
@@ -35920,7 +35920,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="1347" hidden="1" spans="2:6">
+    <row r="1347" spans="2:6">
       <c r="B1347" s="5" t="s">
         <v>2841</v>
       </c>
@@ -35931,7 +35931,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="1348" spans="2:6">
+    <row r="1348" hidden="1" spans="2:6">
       <c r="B1348" s="5" t="s">
         <v>2843</v>
       </c>
@@ -35942,7 +35942,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="1349" spans="2:6">
+    <row r="1349" hidden="1" spans="2:6">
       <c r="B1349" s="5" t="s">
         <v>2845</v>
       </c>
@@ -35953,7 +35953,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="1350" hidden="1" spans="2:6">
+    <row r="1350" spans="2:6">
       <c r="B1350" s="5" t="s">
         <v>2847</v>
       </c>
@@ -35969,7 +35969,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="1352" hidden="1" spans="2:6">
+    <row r="1352" spans="2:6">
       <c r="B1352" s="5" t="s">
         <v>2850</v>
       </c>
@@ -35980,7 +35980,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="1353" hidden="1" spans="2:6">
+    <row r="1353" spans="2:6">
       <c r="B1353" s="5" t="s">
         <v>2852</v>
       </c>
@@ -35991,7 +35991,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="1354" hidden="1" spans="2:6">
+    <row r="1354" spans="2:6">
       <c r="B1354" s="5" t="s">
         <v>2854</v>
       </c>
@@ -36002,7 +36002,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1355" hidden="1" spans="2:6">
+    <row r="1355" spans="2:6">
       <c r="B1355" s="5" t="s">
         <v>2856</v>
       </c>
@@ -36027,7 +36027,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="1359" hidden="1" spans="2:6">
+    <row r="1359" spans="2:6">
       <c r="B1359" s="5" t="s">
         <v>2860</v>
       </c>
@@ -36043,7 +36043,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="1361" hidden="1" spans="2:6">
+    <row r="1361" spans="2:6">
       <c r="B1361" s="5" t="s">
         <v>2863</v>
       </c>
@@ -36054,7 +36054,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="1362" spans="2:6">
+    <row r="1362" hidden="1" spans="2:6">
       <c r="B1362" s="5" t="s">
         <v>2865</v>
       </c>
@@ -36065,7 +36065,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="1363" hidden="1" spans="2:6">
+    <row r="1363" spans="2:6">
       <c r="B1363" s="5" t="s">
         <v>2867</v>
       </c>
@@ -36081,7 +36081,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="1365" spans="2:6">
+    <row r="1365" hidden="1" spans="2:6">
       <c r="B1365" s="5" t="s">
         <v>2870</v>
       </c>
@@ -36095,7 +36095,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="1366" spans="2:6">
+    <row r="1366" hidden="1" spans="2:6">
       <c r="B1366" s="5" t="s">
         <v>2873</v>
       </c>
@@ -36106,7 +36106,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="1367" spans="2:6">
+    <row r="1367" hidden="1" spans="2:6">
       <c r="B1367" s="5" t="s">
         <v>2875</v>
       </c>
@@ -36117,7 +36117,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="1368" hidden="1" spans="2:6">
+    <row r="1368" spans="2:6">
       <c r="B1368" s="5" t="s">
         <v>2877</v>
       </c>
@@ -36128,7 +36128,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="1369" spans="2:6">
+    <row r="1369" hidden="1" spans="2:6">
       <c r="B1369" s="5" t="s">
         <v>2879</v>
       </c>
@@ -36139,7 +36139,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="1370" spans="2:6">
+    <row r="1370" hidden="1" spans="2:6">
       <c r="B1370" s="5" t="s">
         <v>2881</v>
       </c>
@@ -36150,7 +36150,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="1371" spans="2:6">
+    <row r="1371" hidden="1" spans="2:6">
       <c r="B1371" s="5" t="s">
         <v>2883</v>
       </c>
@@ -36161,7 +36161,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="1372" hidden="1" spans="2:6">
+    <row r="1372" spans="2:6">
       <c r="B1372" s="5" t="s">
         <v>2884</v>
       </c>
@@ -36180,7 +36180,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="1374" spans="2:6">
+    <row r="1374" hidden="1" spans="2:6">
       <c r="B1374" s="5" t="s">
         <v>2887</v>
       </c>
@@ -36191,7 +36191,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="1375" hidden="1" spans="2:6">
+    <row r="1375" spans="2:6">
       <c r="B1375" s="5" t="s">
         <v>2889</v>
       </c>
@@ -36207,7 +36207,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="1377" spans="2:6">
+    <row r="1377" hidden="1" spans="2:6">
       <c r="B1377" s="5" t="s">
         <v>2892</v>
       </c>
@@ -36218,7 +36218,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="1378" hidden="1" spans="2:6">
+    <row r="1378" spans="2:6">
       <c r="B1378" s="5" t="s">
         <v>2894</v>
       </c>
@@ -36239,7 +36239,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="1381" spans="2:6">
+    <row r="1381" hidden="1" spans="2:6">
       <c r="B1381" s="5" t="s">
         <v>2898</v>
       </c>
@@ -36250,7 +36250,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="1382" hidden="1" spans="2:6">
+    <row r="1382" spans="2:6">
       <c r="B1382" s="5" t="s">
         <v>2900</v>
       </c>
@@ -36291,7 +36291,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="1389" spans="2:6">
+    <row r="1389" hidden="1" spans="2:6">
       <c r="B1389" s="5" t="s">
         <v>2908</v>
       </c>
@@ -36305,7 +36305,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="1390" spans="2:6">
+    <row r="1390" hidden="1" spans="2:6">
       <c r="B1390" s="5" t="s">
         <v>2910</v>
       </c>
@@ -36316,7 +36316,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="1391" hidden="1" spans="2:6">
+    <row r="1391" spans="2:6">
       <c r="B1391" s="5" t="s">
         <v>2449</v>
       </c>
@@ -36332,7 +36332,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="1393" spans="2:6">
+    <row r="1393" hidden="1" spans="2:6">
       <c r="B1393" s="5" t="s">
         <v>2914</v>
       </c>
@@ -36343,7 +36343,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="1394" spans="2:6">
+    <row r="1394" hidden="1" spans="2:6">
       <c r="B1394" s="5" t="s">
         <v>2916</v>
       </c>
@@ -36354,7 +36354,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="1395" spans="2:6">
+    <row r="1395" hidden="1" spans="2:6">
       <c r="B1395" s="5" t="s">
         <v>2917</v>
       </c>
@@ -36365,7 +36365,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1396" spans="2:6">
+    <row r="1396" hidden="1" spans="2:6">
       <c r="B1396" s="5" t="s">
         <v>2919</v>
       </c>
@@ -36386,7 +36386,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="1399" hidden="1" spans="2:6">
+    <row r="1399" spans="2:6">
       <c r="B1399" s="5" t="s">
         <v>2923</v>
       </c>
@@ -36397,7 +36397,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="1400" spans="2:6">
+    <row r="1400" hidden="1" spans="2:6">
       <c r="B1400" s="5" t="s">
         <v>2925</v>
       </c>
@@ -36408,7 +36408,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="1401" spans="2:6">
+    <row r="1401" hidden="1" spans="2:6">
       <c r="B1401" s="5" t="s">
         <v>2927</v>
       </c>
@@ -36419,7 +36419,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="1402" hidden="1" spans="2:6">
+    <row r="1402" spans="2:6">
       <c r="B1402" s="5" t="s">
         <v>2929</v>
       </c>
@@ -36453,7 +36453,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="1407" hidden="1" spans="2:6">
+    <row r="1407" spans="2:6">
       <c r="B1407" s="5" t="s">
         <v>2936</v>
       </c>
@@ -36469,7 +36469,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="1409" spans="2:6">
+    <row r="1409" hidden="1" spans="2:6">
       <c r="B1409" s="5" t="s">
         <v>2939</v>
       </c>
@@ -36491,7 +36491,7 @@
       </c>
     </row>
     <row r="1412" hidden="1"/>
-    <row r="1413" hidden="1" spans="1:6">
+    <row r="1413" spans="1:6">
       <c r="A1413" s="4" t="s">
         <v>1124</v>
       </c>
@@ -36505,7 +36505,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="1414" spans="2:6">
+    <row r="1414" hidden="1" spans="2:6">
       <c r="B1414" s="5" t="s">
         <v>2945</v>
       </c>
@@ -36526,7 +36526,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="1417" spans="2:6">
+    <row r="1417" hidden="1" spans="2:6">
       <c r="B1417" s="5" t="s">
         <v>2949</v>
       </c>
@@ -36545,7 +36545,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="1419" hidden="1" spans="2:6">
+    <row r="1419" spans="2:6">
       <c r="B1419" s="5" t="s">
         <v>2953</v>
       </c>
@@ -36582,7 +36582,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="1424" hidden="1" spans="2:6">
+    <row r="1424" spans="2:6">
       <c r="B1424" s="5" t="s">
         <v>2961</v>
       </c>
@@ -36618,7 +36618,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="1430" hidden="1" spans="2:6">
+    <row r="1430" spans="2:6">
       <c r="B1430" s="5" t="s">
         <v>2968</v>
       </c>
@@ -36629,7 +36629,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="1431" hidden="1" spans="2:6">
+    <row r="1431" spans="2:6">
       <c r="B1431" s="5" t="s">
         <v>2970</v>
       </c>
@@ -36658,7 +36658,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="1435" spans="2:6">
+    <row r="1435" hidden="1" spans="2:6">
       <c r="B1435" s="5" t="s">
         <v>2975</v>
       </c>
@@ -36674,7 +36674,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="1437" spans="2:3">
+    <row r="1437" hidden="1" spans="2:3">
       <c r="B1437" s="5" t="s">
         <v>2978</v>
       </c>
@@ -36682,7 +36682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1438" hidden="1" spans="2:6">
+    <row r="1438" spans="2:6">
       <c r="B1438" s="5" t="s">
         <v>2979</v>
       </c>
@@ -36713,7 +36713,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="1443" spans="2:6">
+    <row r="1443" hidden="1" spans="2:6">
       <c r="B1443" s="5" t="s">
         <v>2984</v>
       </c>
@@ -36731,7 +36731,7 @@
       </c>
     </row>
     <row r="1445" hidden="1"/>
-    <row r="1446" hidden="1" spans="1:6">
+    <row r="1446" spans="1:6">
       <c r="A1446" s="4" t="s">
         <v>2987</v>
       </c>
@@ -36770,7 +36770,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="1452" hidden="1" spans="2:6">
+    <row r="1452" spans="2:6">
       <c r="B1452" s="5" t="s">
         <v>2995</v>
       </c>
@@ -36781,7 +36781,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="1453" spans="2:6">
+    <row r="1453" hidden="1" spans="2:6">
       <c r="B1453" s="5" t="s">
         <v>2997</v>
       </c>
@@ -36792,7 +36792,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="1454" spans="2:6">
+    <row r="1454" hidden="1" spans="2:6">
       <c r="B1454" s="5" t="s">
         <v>2999</v>
       </c>
@@ -36808,7 +36808,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="1456" hidden="1" spans="2:6">
+    <row r="1456" spans="2:6">
       <c r="B1456" s="5" t="s">
         <v>3002</v>
       </c>
@@ -36819,7 +36819,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="1457" spans="2:6">
+    <row r="1457" hidden="1" spans="2:6">
       <c r="B1457" s="5" t="s">
         <v>3004</v>
       </c>
@@ -36830,7 +36830,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="1458" hidden="1" spans="2:6">
+    <row r="1458" spans="2:6">
       <c r="B1458" s="5" t="s">
         <v>3006</v>
       </c>
@@ -36841,7 +36841,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="1459" spans="2:6">
+    <row r="1459" hidden="1" spans="2:6">
       <c r="B1459" s="5" t="s">
         <v>3008</v>
       </c>
@@ -36857,7 +36857,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="1461" hidden="1" spans="2:6">
+    <row r="1461" spans="2:6">
       <c r="B1461" s="5" t="s">
         <v>3011</v>
       </c>
@@ -36868,7 +36868,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="1462" spans="2:6">
+    <row r="1462" hidden="1" spans="2:6">
       <c r="B1462" s="5" t="s">
         <v>3013</v>
       </c>
@@ -36884,7 +36884,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="1464" hidden="1" spans="2:6">
+    <row r="1464" spans="2:6">
       <c r="B1464" s="5" t="s">
         <v>3016</v>
       </c>
@@ -36895,7 +36895,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="1465" spans="2:6">
+    <row r="1465" hidden="1" spans="2:6">
       <c r="B1465" s="5" t="s">
         <v>3018</v>
       </c>
@@ -36906,7 +36906,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="1466" hidden="1" spans="2:6">
+    <row r="1466" spans="2:6">
       <c r="B1466" s="5" t="s">
         <v>3020</v>
       </c>
@@ -36920,7 +36920,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="1467" hidden="1" spans="2:6">
+    <row r="1467" spans="2:6">
       <c r="B1467" s="5" t="s">
         <v>3023</v>
       </c>
@@ -36931,7 +36931,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="1468" spans="2:6">
+    <row r="1468" hidden="1" spans="2:6">
       <c r="B1468" s="5" t="s">
         <v>3025</v>
       </c>
@@ -36942,7 +36942,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="1469" spans="2:6">
+    <row r="1469" hidden="1" spans="2:6">
       <c r="B1469" s="5" t="s">
         <v>3027</v>
       </c>
@@ -36976,7 +36976,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="1474" spans="2:6">
+    <row r="1474" hidden="1" spans="2:6">
       <c r="B1474" s="5" t="s">
         <v>2531</v>
       </c>
@@ -36995,7 +36995,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1476" spans="2:6">
+    <row r="1476" hidden="1" spans="2:6">
       <c r="B1476" s="5" t="s">
         <v>3035</v>
       </c>
@@ -37006,7 +37006,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="1477" spans="2:6">
+    <row r="1477" hidden="1" spans="2:6">
       <c r="B1477" s="5" t="s">
         <v>3037</v>
       </c>
@@ -37020,7 +37020,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="1478" spans="2:6">
+    <row r="1478" hidden="1" spans="2:6">
       <c r="B1478" s="5" t="s">
         <v>3039</v>
       </c>
@@ -37031,7 +37031,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="1479" hidden="1" spans="2:6">
+    <row r="1479" spans="2:6">
       <c r="B1479" s="5" t="s">
         <v>3041</v>
       </c>
@@ -37052,7 +37052,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="1482" spans="2:6">
+    <row r="1482" hidden="1" spans="2:6">
       <c r="B1482" s="5" t="s">
         <v>3045</v>
       </c>
@@ -37063,7 +37063,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="1483" spans="2:6">
+    <row r="1483" hidden="1" spans="2:6">
       <c r="B1483" s="5" t="s">
         <v>3047</v>
       </c>
@@ -37079,7 +37079,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="1485" spans="2:6">
+    <row r="1485" hidden="1" spans="2:6">
       <c r="B1485" s="5" t="s">
         <v>3050</v>
       </c>
@@ -37090,7 +37090,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="1486" spans="2:6">
+    <row r="1486" hidden="1" spans="2:6">
       <c r="B1486" s="5" t="s">
         <v>3052</v>
       </c>
@@ -37101,7 +37101,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="1487" hidden="1" spans="2:6">
+    <row r="1487" spans="2:6">
       <c r="B1487" s="5" t="s">
         <v>3054</v>
       </c>
@@ -37128,7 +37128,7 @@
       </c>
     </row>
     <row r="1491" hidden="1"/>
-    <row r="1492" spans="1:6">
+    <row r="1492" hidden="1" spans="1:6">
       <c r="A1492" s="4" t="s">
         <v>3059</v>
       </c>
@@ -37142,7 +37142,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="1493" spans="2:6">
+    <row r="1493" hidden="1" spans="2:6">
       <c r="B1493" s="5" t="s">
         <v>3062</v>
       </c>
@@ -37158,7 +37158,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="1495" spans="2:6">
+    <row r="1495" hidden="1" spans="2:6">
       <c r="B1495" s="5" t="s">
         <v>3065</v>
       </c>
@@ -37169,7 +37169,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="1496" spans="2:6">
+    <row r="1496" hidden="1" spans="2:6">
       <c r="B1496" s="5" t="s">
         <v>3067</v>
       </c>
@@ -37180,7 +37180,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="1497" hidden="1" spans="2:6">
+    <row r="1497" spans="2:6">
       <c r="B1497" s="5" t="s">
         <v>3069</v>
       </c>
@@ -37191,7 +37191,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="1498" spans="2:6">
+    <row r="1498" hidden="1" spans="2:6">
       <c r="B1498" s="5" t="s">
         <v>3071</v>
       </c>
@@ -37202,7 +37202,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="1499" spans="2:6">
+    <row r="1499" hidden="1" spans="2:6">
       <c r="B1499" s="5" t="s">
         <v>3073</v>
       </c>
@@ -37218,7 +37218,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="1501" hidden="1" spans="2:6">
+    <row r="1501" spans="2:6">
       <c r="B1501" s="5" t="s">
         <v>3076</v>
       </c>
@@ -37229,7 +37229,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="1502" hidden="1" spans="2:6">
+    <row r="1502" spans="2:6">
       <c r="B1502" s="5" t="s">
         <v>3078</v>
       </c>
@@ -37250,7 +37250,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="1505" spans="2:6">
+    <row r="1505" hidden="1" spans="2:6">
       <c r="B1505" s="5" t="s">
         <v>3082</v>
       </c>
@@ -37261,7 +37261,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="1506" spans="2:6">
+    <row r="1506" hidden="1" spans="2:6">
       <c r="B1506" s="5" t="s">
         <v>3084</v>
       </c>
@@ -37272,7 +37272,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="1507" hidden="1" spans="2:6">
+    <row r="1507" spans="2:6">
       <c r="B1507" s="5" t="s">
         <v>3086</v>
       </c>
@@ -37283,7 +37283,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="1508" spans="2:6">
+    <row r="1508" hidden="1" spans="2:6">
       <c r="B1508" s="5" t="s">
         <v>3088</v>
       </c>
@@ -37299,7 +37299,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="1510" hidden="1" spans="2:6">
+    <row r="1510" spans="2:6">
       <c r="B1510" s="5" t="s">
         <v>3091</v>
       </c>
@@ -37315,7 +37315,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="1512" hidden="1" spans="2:6">
+    <row r="1512" spans="2:6">
       <c r="B1512" s="5" t="s">
         <v>3094</v>
       </c>
@@ -37326,7 +37326,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="1513" spans="2:6">
+    <row r="1513" hidden="1" spans="2:6">
       <c r="B1513" s="5" t="s">
         <v>3096</v>
       </c>
@@ -37337,7 +37337,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="1514" spans="2:6">
+    <row r="1514" hidden="1" spans="2:6">
       <c r="B1514" s="5" t="s">
         <v>3098</v>
       </c>
@@ -37348,7 +37348,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="1515" spans="2:6">
+    <row r="1515" hidden="1" spans="2:6">
       <c r="B1515" s="5" t="s">
         <v>3100</v>
       </c>
@@ -37359,7 +37359,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="1516" spans="2:6">
+    <row r="1516" hidden="1" spans="2:6">
       <c r="B1516" s="5" t="s">
         <v>3102</v>
       </c>
@@ -37370,7 +37370,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="1517" spans="2:6">
+    <row r="1517" hidden="1" spans="2:6">
       <c r="B1517" s="5" t="s">
         <v>3104</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="1519" spans="2:6">
+    <row r="1519" hidden="1" spans="2:6">
       <c r="B1519" s="5" t="s">
         <v>3107</v>
       </c>
@@ -37397,7 +37397,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="1520" spans="2:6">
+    <row r="1520" hidden="1" spans="2:6">
       <c r="B1520" s="5" t="s">
         <v>3109</v>
       </c>
@@ -37411,7 +37411,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1521" spans="2:6">
+    <row r="1521" hidden="1" spans="2:6">
       <c r="B1521" s="5" t="s">
         <v>3111</v>
       </c>
@@ -37422,7 +37422,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="1522" spans="2:6">
+    <row r="1522" hidden="1" spans="2:6">
       <c r="B1522" s="5" t="s">
         <v>3113</v>
       </c>
@@ -37433,7 +37433,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="1523" spans="2:6">
+    <row r="1523" hidden="1" spans="2:6">
       <c r="B1523" s="5" t="s">
         <v>3115</v>
       </c>
@@ -37452,7 +37452,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="1525" spans="2:6">
+    <row r="1525" hidden="1" spans="2:6">
       <c r="B1525" s="5" t="s">
         <v>3118</v>
       </c>
@@ -37475,7 +37475,7 @@
       </c>
     </row>
     <row r="1528" hidden="1"/>
-    <row r="1529" spans="1:6">
+    <row r="1529" hidden="1" spans="1:6">
       <c r="A1529" s="4" t="s">
         <v>3122</v>
       </c>
@@ -37489,7 +37489,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="1530" hidden="1" spans="2:6">
+    <row r="1530" spans="2:6">
       <c r="B1530" s="5" t="s">
         <v>3125</v>
       </c>
@@ -37500,7 +37500,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="1531" spans="2:6">
+    <row r="1531" hidden="1" spans="2:6">
       <c r="B1531" s="5" t="s">
         <v>3127</v>
       </c>
@@ -37514,7 +37514,7 @@
         <v>3129</v>
       </c>
     </row>
-    <row r="1532" hidden="1" spans="2:6">
+    <row r="1532" spans="2:6">
       <c r="B1532" s="5" t="s">
         <v>3130</v>
       </c>
@@ -37525,7 +37525,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="1533" hidden="1" spans="2:6">
+    <row r="1533" spans="2:6">
       <c r="B1533" s="5" t="s">
         <v>3132</v>
       </c>
@@ -37549,7 +37549,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="1536" hidden="1" spans="2:6">
+    <row r="1536" spans="2:6">
       <c r="B1536" s="5" t="s">
         <v>3137</v>
       </c>
@@ -37560,7 +37560,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="1537" hidden="1" spans="2:6">
+    <row r="1537" spans="2:6">
       <c r="B1537" s="5" t="s">
         <v>3139</v>
       </c>
@@ -37576,7 +37576,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="1539" hidden="1" spans="2:6">
+    <row r="1539" spans="2:6">
       <c r="B1539" s="5" t="s">
         <v>3142</v>
       </c>
@@ -37587,7 +37587,7 @@
         <v>3143</v>
       </c>
     </row>
-    <row r="1540" hidden="1" spans="2:6">
+    <row r="1540" spans="2:6">
       <c r="B1540" s="5" t="s">
         <v>3144</v>
       </c>
@@ -37598,7 +37598,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="1541" spans="2:6">
+    <row r="1541" hidden="1" spans="2:6">
       <c r="B1541" s="5" t="s">
         <v>3146</v>
       </c>
@@ -37614,7 +37614,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="1543" hidden="1" spans="2:6">
+    <row r="1543" spans="2:6">
       <c r="B1543" s="5" t="s">
         <v>3149</v>
       </c>
@@ -37625,7 +37625,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="1544" hidden="1" spans="2:6">
+    <row r="1544" spans="2:6">
       <c r="B1544" s="5" t="s">
         <v>3151</v>
       </c>
@@ -37636,7 +37636,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="1545" hidden="1" spans="2:6">
+    <row r="1545" spans="2:6">
       <c r="B1545" s="5" t="s">
         <v>2569</v>
       </c>
@@ -37662,7 +37662,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="1549" hidden="1" spans="2:6">
+    <row r="1549" spans="2:6">
       <c r="B1549" s="5" t="s">
         <v>3156</v>
       </c>
@@ -37678,7 +37678,7 @@
         <v>3158</v>
       </c>
     </row>
-    <row r="1551" spans="2:6">
+    <row r="1551" hidden="1" spans="2:6">
       <c r="B1551" s="5" t="s">
         <v>3159</v>
       </c>
@@ -37694,7 +37694,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="1553" spans="2:6">
+    <row r="1553" hidden="1" spans="2:6">
       <c r="B1553" s="5" t="s">
         <v>3162</v>
       </c>
@@ -37705,7 +37705,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="1554" hidden="1" spans="2:6">
+    <row r="1554" spans="2:6">
       <c r="B1554" s="5" t="s">
         <v>3164</v>
       </c>
@@ -37716,7 +37716,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="1555" hidden="1" spans="2:6">
+    <row r="1555" spans="2:6">
       <c r="B1555" s="5" t="s">
         <v>3166</v>
       </c>
@@ -37737,7 +37737,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="1558" spans="2:6">
+    <row r="1558" hidden="1" spans="2:6">
       <c r="B1558" s="5" t="s">
         <v>3170</v>
       </c>
@@ -37748,7 +37748,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="1559" spans="2:6">
+    <row r="1559" hidden="1" spans="2:6">
       <c r="B1559" s="5" t="s">
         <v>3172</v>
       </c>
@@ -37759,7 +37759,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="1560" hidden="1" spans="2:6">
+    <row r="1560" spans="2:6">
       <c r="B1560" s="5" t="s">
         <v>3174</v>
       </c>
@@ -37775,7 +37775,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="1562" spans="2:6">
+    <row r="1562" hidden="1" spans="2:6">
       <c r="B1562" s="5" t="s">
         <v>3177</v>
       </c>
@@ -37791,7 +37791,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="1564" spans="2:6">
+    <row r="1564" hidden="1" spans="2:6">
       <c r="B1564" s="5" t="s">
         <v>3180</v>
       </c>
@@ -37810,7 +37810,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="1566" hidden="1" spans="2:6">
+    <row r="1566" spans="2:6">
       <c r="B1566" s="5" t="s">
         <v>3183</v>
       </c>
@@ -37826,7 +37826,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="1568" spans="2:6">
+    <row r="1568" hidden="1" spans="2:6">
       <c r="B1568" s="5" t="s">
         <v>3186</v>
       </c>
@@ -37837,7 +37837,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="1569" hidden="1" spans="2:6">
+    <row r="1569" spans="2:6">
       <c r="B1569" s="5" t="s">
         <v>3188</v>
       </c>
@@ -37862,7 +37862,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="1573" hidden="1" spans="2:6">
+    <row r="1573" spans="2:6">
       <c r="B1573" s="5" t="s">
         <v>3193</v>
       </c>
@@ -37878,7 +37878,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="1575" spans="2:6">
+    <row r="1575" hidden="1" spans="2:6">
       <c r="B1575" s="5" t="s">
         <v>3195</v>
       </c>
@@ -37889,7 +37889,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="1576" spans="2:6">
+    <row r="1576" hidden="1" spans="2:6">
       <c r="B1576" s="5" t="s">
         <v>3197</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="1578" spans="2:6">
+    <row r="1578" hidden="1" spans="2:6">
       <c r="B1578" s="5" t="s">
         <v>3200</v>
       </c>
@@ -37931,7 +37931,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="1582" hidden="1" spans="2:6">
+    <row r="1582" spans="2:6">
       <c r="B1582" s="5" t="s">
         <v>3205</v>
       </c>
@@ -37942,7 +37942,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="1583" hidden="1" spans="2:6">
+    <row r="1583" spans="2:6">
       <c r="B1583" s="5" t="s">
         <v>3207</v>
       </c>
@@ -37958,7 +37958,7 @@
         <v>3209</v>
       </c>
     </row>
-    <row r="1585" hidden="1" spans="2:6">
+    <row r="1585" spans="2:6">
       <c r="B1585" s="5" t="s">
         <v>3210</v>
       </c>
@@ -37979,7 +37979,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="1588" hidden="1" spans="2:6">
+    <row r="1588" spans="2:6">
       <c r="B1588" s="5" t="s">
         <v>3214</v>
       </c>
@@ -37995,7 +37995,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="1590" spans="2:6">
+    <row r="1590" hidden="1" spans="2:6">
       <c r="B1590" s="5" t="s">
         <v>3217</v>
       </c>
@@ -38006,7 +38006,7 @@
         <v>3218</v>
       </c>
     </row>
-    <row r="1591" hidden="1" spans="2:6">
+    <row r="1591" spans="2:6">
       <c r="B1591" s="5" t="s">
         <v>3219</v>
       </c>
@@ -38037,7 +38037,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="1596" hidden="1" spans="2:6">
+    <row r="1596" spans="2:6">
       <c r="B1596" s="5" t="s">
         <v>3225</v>
       </c>
@@ -38048,7 +38048,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="1597" hidden="1" spans="2:6">
+    <row r="1597" spans="2:6">
       <c r="B1597" s="5" t="s">
         <v>3227</v>
       </c>
@@ -38059,7 +38059,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="1598" hidden="1" spans="2:6">
+    <row r="1598" spans="2:6">
       <c r="B1598" s="5" t="s">
         <v>3229</v>
       </c>
@@ -38070,7 +38070,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="1599" hidden="1" spans="2:6">
+    <row r="1599" spans="2:6">
       <c r="B1599" s="5" t="s">
         <v>3231</v>
       </c>
@@ -38086,7 +38086,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="1601" hidden="1" spans="2:6">
+    <row r="1601" spans="2:6">
       <c r="B1601" s="5" t="s">
         <v>3234</v>
       </c>
@@ -38097,7 +38097,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="1602" hidden="1" spans="2:6">
+    <row r="1602" spans="2:6">
       <c r="B1602" s="5" t="s">
         <v>3236</v>
       </c>
@@ -38108,7 +38108,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="1603" hidden="1" spans="2:6">
+    <row r="1603" spans="2:6">
       <c r="B1603" s="5" t="s">
         <v>3238</v>
       </c>
@@ -38119,7 +38119,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="1604" spans="2:6">
+    <row r="1604" hidden="1" spans="2:6">
       <c r="B1604" s="5" t="s">
         <v>3240</v>
       </c>
@@ -38130,7 +38130,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="1605" hidden="1" spans="2:6">
+    <row r="1605" spans="2:6">
       <c r="B1605" s="5" t="s">
         <v>3242</v>
       </c>
@@ -38141,7 +38141,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="1606" hidden="1" spans="2:6">
+    <row r="1606" spans="2:6">
       <c r="B1606" s="5" t="s">
         <v>3244</v>
       </c>
@@ -38157,7 +38157,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="1608" hidden="1" spans="2:6">
+    <row r="1608" spans="2:6">
       <c r="B1608" s="5" t="s">
         <v>3247</v>
       </c>
@@ -38178,7 +38178,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="1611" hidden="1" spans="2:6">
+    <row r="1611" spans="2:6">
       <c r="B1611" s="5" t="s">
         <v>3251</v>
       </c>
@@ -38189,7 +38189,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="1612" hidden="1" spans="2:6">
+    <row r="1612" spans="2:6">
       <c r="B1612" s="5" t="s">
         <v>3253</v>
       </c>
@@ -38205,7 +38205,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="1614" hidden="1" spans="2:6">
+    <row r="1614" spans="2:6">
       <c r="B1614" s="5" t="s">
         <v>3256</v>
       </c>
@@ -38216,7 +38216,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="1615" spans="2:6">
+    <row r="1615" hidden="1" spans="2:6">
       <c r="B1615" s="5" t="s">
         <v>3258</v>
       </c>
@@ -38227,7 +38227,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="1616" hidden="1" spans="2:6">
+    <row r="1616" spans="2:6">
       <c r="B1616" s="5" t="s">
         <v>3260</v>
       </c>
@@ -38238,7 +38238,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="1617" spans="2:6">
+    <row r="1617" hidden="1" spans="2:6">
       <c r="B1617" s="5" t="s">
         <v>3262</v>
       </c>
@@ -40368,7 +40368,7 @@
   <autoFilter ref="C1:C1697">
     <filterColumn colId="0">
       <customFilters>
-        <customFilter operator="equal" val="33"/>
+        <customFilter operator="equal" val="3"/>
       </customFilters>
     </filterColumn>
     <extLst/>
